--- a/Simulacion CNDH.xlsx
+++ b/Simulacion CNDH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Desktop\Trabajos Semestre\Tecnologico\5to semestre\Simulación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D74E94-F53E-4BE8-9477-B8925ADF0003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB693E42-943E-4FED-B492-157CEE96A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{4C7E1030-DE35-4646-9A5E-763E8DC020F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4C7E1030-DE35-4646-9A5E-763E8DC020F9}"/>
   </bookViews>
   <sheets>
     <sheet name="QuejasXTrimestre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="119">
   <si>
     <t>Visitadurias</t>
   </si>
@@ -344,45 +344,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ProbaX</t>
-  </si>
-  <si>
-    <t>Resoluciones Primera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>Resoluciones Tercera</t>
-  </si>
-  <si>
-    <t>Resoluciones Cuarta</t>
-  </si>
-  <si>
-    <t>Resoluciones Quinta</t>
-  </si>
-  <si>
-    <t>Resoluciones Sexta</t>
-  </si>
-  <si>
-    <t>Resoluciones Fresnillo</t>
-  </si>
-  <si>
-    <t>Resoluciones Jerez</t>
-  </si>
-  <si>
-    <t>Resoluciones Jalp</t>
-  </si>
-  <si>
-    <t>Resoluciones Sombrerete</t>
-  </si>
-  <si>
-    <t>Resoluciones Rio Grande</t>
-  </si>
-  <si>
-    <t>Resoluciones Loreto</t>
-  </si>
-  <si>
     <t>Prob Tipos de Resoluciones</t>
   </si>
   <si>
@@ -390,6 +351,51 @@
   </si>
   <si>
     <t>Media Resoluciones</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Entradas trimestres 1</t>
+  </si>
+  <si>
+    <t>Entradas trimestre 2</t>
+  </si>
+  <si>
+    <t>Entradas trimestre 3</t>
+  </si>
+  <si>
+    <t>Entradas trimestre 4</t>
+  </si>
+  <si>
+    <t>entrada anio</t>
+  </si>
+  <si>
+    <t>CNDH Trimestres</t>
+  </si>
+  <si>
+    <t>Abril-Junio</t>
+  </si>
+  <si>
+    <t>Julio-Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre-Diciembre</t>
+  </si>
+  <si>
+    <t>Primera visitaduria</t>
+  </si>
+  <si>
+    <t>Tercera visitaduria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuarta visitaduria </t>
+  </si>
+  <si>
+    <t>Quinta Visitaduria</t>
+  </si>
+  <si>
+    <t>Sexta Visitaduria</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +433,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,16 +835,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,13 +861,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,16 +1209,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC0EAC3-825E-430C-98DD-771EE3482698}">
   <dimension ref="B2:AI47"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N24" sqref="N18:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
@@ -1221,6 +1243,7 @@
     <col min="27" max="27" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.6328125" bestFit="1" customWidth="1"/>
@@ -2374,9 +2397,7 @@
       <c r="X13" s="2">
         <v>8</v>
       </c>
-      <c r="Y13" s="2">
-        <v>5</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2">
         <v>12</v>
       </c>
@@ -2494,7 +2515,7 @@
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="0"/>
@@ -2530,11 +2551,11 @@
       </c>
       <c r="AH14" s="17">
         <f>SUM(C14:AG14)</f>
-        <v>5119</v>
+        <v>5114</v>
       </c>
       <c r="AI14" s="17">
         <f>AH14/31</f>
-        <v>165.12903225806451</v>
+        <v>164.96774193548387</v>
       </c>
     </row>
     <row r="15" spans="2:35" x14ac:dyDescent="0.35">
@@ -2568,35 +2589,148 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+    </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="34">
+        <f>AVERAGE(D14,H14,L14,P14,T14,X14,AB14)</f>
+        <v>157.14285714285714</v>
+      </c>
+      <c r="E17" s="34">
+        <f>AVERAGE(E14,I14,M14,Q14,U14,Y14,AC14)</f>
+        <v>163.71428571428572</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" ref="F17:G17" si="1">AVERAGE(F14,J14,N14,R14,V14,Z14,AD14)</f>
+        <v>158.14285714285714</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.35">
@@ -2607,89 +2741,139 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
+      <c r="I18" s="44">
+        <v>14</v>
+      </c>
+      <c r="J18" s="44">
+        <v>14</v>
+      </c>
+      <c r="K18" s="44">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2">
+        <v>14</v>
+      </c>
+      <c r="M18" s="2">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2">
+        <v>23</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="I19" s="2">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2">
+        <v>17</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8">
+        <f>AVERAGE(D14:AE14)</f>
+        <v>161</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
+      <c r="I20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2">
+        <v>16</v>
+      </c>
+      <c r="M20" s="2">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2">
+        <v>12</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.35">
@@ -2699,6 +2883,42 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
+      <c r="I21" s="2">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2">
+        <v>14</v>
+      </c>
+      <c r="M21" s="2">
+        <v>14</v>
+      </c>
+      <c r="N21" s="2">
+        <v>19</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C22" s="8"/>
@@ -2707,6 +2927,42 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
+      <c r="I22" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>19</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2">
+        <v>21</v>
+      </c>
+      <c r="N22" s="2">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C23" s="8"/>
@@ -2715,6 +2971,42 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
+      <c r="I23" s="2">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2">
+        <v>17</v>
+      </c>
+      <c r="L23" s="2">
+        <v>24</v>
+      </c>
+      <c r="M23" s="2">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2">
+        <v>15</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C24" s="8"/>
@@ -2723,6 +3015,42 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
+      <c r="I24" s="2">
+        <v>27</v>
+      </c>
+      <c r="J24" s="2">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2">
+        <v>18</v>
+      </c>
+      <c r="N24" s="2">
+        <v>28</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C25" s="8"/>
@@ -2906,6 +3234,15 @@
       <c r="H47" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2913,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBC14FD-2859-4A01-8B2C-0115F92D96E6}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:N2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2929,8 +3266,8 @@
     <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
@@ -2971,2373 +3308,1150 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="31">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="35">
         <v>2026</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2">
-        <v>0.24692</v>
+        <v>0.32196000000000002</v>
       </c>
       <c r="D3" s="18">
-        <f>_xlfn.NORM.INV(C3,17.8,8.26)</f>
-        <v>12.148391796570465</v>
+        <f>_xlfn.NORM.INV(C3,19.7,8.15)</f>
+        <v>15.932866510966372</v>
       </c>
       <c r="E3" s="18">
-        <f>_xlfn.NORM.INV(C3,19.1,6.09)</f>
-        <v>14.933136324590089</v>
-      </c>
-      <c r="F3" s="18">
-        <f>_xlfn.NORM.INV(C3,24.7,9.49)</f>
-        <v>18.206808492669939</v>
-      </c>
-      <c r="G3" s="18">
-        <f>_xlfn.NORM.INV(C3,20.4,5.46)</f>
-        <v>16.664191187563524</v>
-      </c>
-      <c r="H3" s="18">
-        <f>_xlfn.NORM.INV(C3,19.9,9.71)</f>
-        <v>13.25628139766334</v>
-      </c>
-      <c r="I3" s="18">
-        <f>_xlfn.NORM.INV(C3,18.4,8.91)</f>
-        <v>12.303652652232788</v>
-      </c>
-      <c r="J3" s="18">
-        <f>_xlfn.NORM.INV(C3,16.6,5.68)</f>
-        <v>12.713664092556931</v>
-      </c>
-      <c r="K3" s="18">
-        <f>_xlfn.NORM.INV(C3,5.48,2.73)</f>
-        <v>3.6120955937817643</v>
-      </c>
-      <c r="L3" s="18">
-        <f>_xlfn.NORM.INV(C3,8.03,4.31)</f>
-        <v>5.0810373660071058</v>
-      </c>
-      <c r="M3" s="18">
-        <f>_xlfn.NORM.INV(C3,10,4.89)</f>
-        <v>6.6541932064442584</v>
-      </c>
-      <c r="N3" s="19">
-        <f>_xlfn.NORM.INV(C3,5.16,2.76)</f>
-        <v>3.2715691717354094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+        <f>_xlfn.NORM.INV(C3,16.9,2.55)</f>
+        <v>15.721326331652055</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="32">
+        <f>SUM(D3:N3)</f>
+        <v>31.654192842618428</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32">
+        <f>SUM(O3:O6)</f>
+        <v>91.082597284059801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2">
-        <v>0.89165000000000005</v>
+        <v>0.20449000000000001</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D46" si="0">_xlfn.NORM.INV(C4,17.8,8.26)</f>
-        <v>28.003997054985994</v>
+        <f>_xlfn.NORM.INV(C4,16.7,7.03)</f>
+        <v>10.895399716807393</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" ref="E4:E46" si="1">_xlfn.NORM.INV(C4,19.1,6.09)</f>
-        <v>26.623285964269336</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" ref="F4:F46" si="2">_xlfn.NORM.INV(C4,24.7,9.49)</f>
-        <v>36.423478456636445</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G46" si="3">_xlfn.NORM.INV(C4,20.4,5.46)</f>
-        <v>27.145015002448368</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" ref="H4:H46" si="4">_xlfn.NORM.INV(C4,19.9,9.71)</f>
-        <v>31.89525561790726</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:I46" si="5">_xlfn.NORM.INV(C4,18.4,8.91)</f>
-        <v>29.406975031467937</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" ref="J4:J46" si="6">_xlfn.NORM.INV(C4,16.6,5.68)</f>
-        <v>23.616792163719182</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" ref="K4:K46" si="7">_xlfn.NORM.INV(C4,5.48,2.73)</f>
-        <v>8.8525075012241849</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" ref="L4:L46" si="8">_xlfn.NORM.INV(C4,8.03,4.31)</f>
-        <v>13.354361659441842</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" ref="M4:M46" si="9">_xlfn.NORM.INV(C4,10,4.89)</f>
-        <v>16.040865084610353</v>
-      </c>
-      <c r="N4" s="19">
-        <f t="shared" ref="N4:N46" si="10">_xlfn.NORM.INV(C4,5.16,2.76)</f>
-        <v>8.569568023215659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+        <f>_xlfn.NORM.INV(C4,19.4,4.59)</f>
+        <v>15.610083172140246</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="32">
+        <f t="shared" ref="O4:O6" si="0">SUM(D4:N4)</f>
+        <v>26.50548288894764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2">
-        <v>0.14108000000000001</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="D5" s="18">
+        <f>_xlfn.NORM.INV(C5,19.2,1.54)</f>
+        <v>16.716373269445178</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="32">
         <f t="shared" si="0"/>
-        <v>8.9165373828819892</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="1"/>
-        <v>12.550328409412993</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="2"/>
-        <v>14.493697307935843</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="3"/>
-        <v>14.527880642921991</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="4"/>
-        <v>9.4570917660755551</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="5"/>
-        <v>8.8174755546584151</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="6"/>
-        <v>10.491275101061708</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="7"/>
-        <v>2.5439403214609966</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="8"/>
-        <v>3.3946823390098508</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="9"/>
-        <v>4.7409040922872796</v>
-      </c>
-      <c r="N5" s="19">
-        <f t="shared" si="10"/>
-        <v>2.1916759293891395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+        <v>16.716373269445178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="2">
-        <v>0.40983000000000003</v>
+        <v>0.38284000000000001</v>
       </c>
       <c r="D6" s="18">
+        <f>_xlfn.NORM.INV(C6,17.5,4.34)</f>
+        <v>16.206548283048562</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="32">
         <f t="shared" si="0"/>
-        <v>15.91686619390007</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="1"/>
-        <v>17.711587787028019</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="2"/>
-        <v>22.536447963693902</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="3"/>
-        <v>19.155216636645807</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="4"/>
-        <v>17.686291857478167</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="5"/>
-        <v>16.368677698262662</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="6"/>
-        <v>15.305060530430072</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="7"/>
-        <v>4.857608318322904</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="8"/>
-        <v>7.0473962827735219</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="9"/>
-        <v>8.8851665482047615</v>
-      </c>
-      <c r="N6" s="19">
-        <f t="shared" si="10"/>
-        <v>4.5307688492934854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+        <v>16.206548283048562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
         <v>2027</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2">
-        <v>4.6899999999999997E-2</v>
+        <v>0.255</v>
       </c>
       <c r="D7" s="18">
-        <f t="shared" si="0"/>
-        <v>3.95884571531254</v>
+        <f>_xlfn.NORM.INV(C7,19.7,8.15)</f>
+        <v>14.330472804200069</v>
       </c>
       <c r="E7" s="18">
-        <f t="shared" si="1"/>
-        <v>8.8950811629846704</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="2"/>
-        <v>8.7977537334522982</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="3"/>
-        <v>11.250762421986252</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="4"/>
-        <v>3.629103135070789</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="5"/>
-        <v>3.4696507655489963</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="6"/>
-        <v>7.08211182360475</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="7"/>
-        <v>0.90538121099312718</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="8"/>
-        <v>0.80779964079867295</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="9"/>
-        <v>1.8059026087019756</v>
-      </c>
-      <c r="N7" s="19">
-        <f t="shared" si="10"/>
-        <v>0.53511067485019481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+        <f>_xlfn.NORM.INV(C7,16.9,2.55)</f>
+        <v>15.21996388352272</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96050000000000002</v>
+        <v>0.71923000000000004</v>
       </c>
       <c r="D8" s="18">
-        <f t="shared" si="0"/>
-        <v>32.308838713138414</v>
+        <f>_xlfn.NORM.INV(C8,16.7,7.03)</f>
+        <v>20.781305907891213</v>
       </c>
       <c r="E8" s="18">
-        <f t="shared" si="1"/>
-        <v>29.797194644432562</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="2"/>
-        <v>41.369355858073071</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="3"/>
-        <v>29.990588301905053</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="4"/>
-        <v>36.955789818955694</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="5"/>
-        <v>34.05057541574616</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="6"/>
-        <v>26.577022262787679</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="7"/>
-        <v>10.275294150952528</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="8"/>
-        <v>15.600592597291351</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="9"/>
-        <v>18.589373039618263</v>
-      </c>
-      <c r="N8" s="19">
-        <f t="shared" si="10"/>
-        <v>10.007989691072884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+        <f>_xlfn.NORM.INV(C8,19.4,4.59)</f>
+        <v>22.064750230045611</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
       <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="2">
-        <v>0.89634000000000003</v>
+        <v>0.19719</v>
       </c>
       <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>28.215604313487827</v>
-      </c>
-      <c r="E9" s="18">
-        <f t="shared" si="1"/>
-        <v>26.779301485368144</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="2"/>
-        <v>36.666596239104052</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="3"/>
-        <v>27.284890986881784</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="4"/>
-        <v>32.144009429051671</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="5"/>
-        <v>29.635234192878514</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="6"/>
-        <v>23.762304176829403</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="7"/>
-        <v>8.9224454934408932</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="8"/>
-        <v>13.464776584882873</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="9"/>
-        <v>16.16613863110841</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" si="10"/>
-        <v>8.6402745647973855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+        <f>_xlfn.NORM.INV(C9,19.2,1.54)</f>
+        <v>17.8883802784107</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>0.99270000000000003</v>
+        <v>0.82798000000000005</v>
       </c>
       <c r="D10" s="18">
-        <f t="shared" si="0"/>
-        <v>37.972175120026293</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" si="1"/>
-        <v>33.972705385104135</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="2"/>
-        <v>47.876022020466046</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="3"/>
-        <v>33.734149655610601</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="4"/>
-        <v>43.613295449812995</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="5"/>
-        <v>40.159573888551364</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="6"/>
-        <v>30.47142308495755</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="7"/>
-        <v>12.147074827805302</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="8"/>
-        <v>18.555674911297011</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="9"/>
-        <v>21.942123043211691</v>
-      </c>
-      <c r="N10" s="19">
-        <f t="shared" si="10"/>
-        <v>11.900339386352611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+        <f>_xlfn.NORM.INV(C10,17.5,4.34)</f>
+        <v>21.606564052596816</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="35">
         <v>2028</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2">
-        <v>0.70252000000000003</v>
+        <v>0.68791999999999998</v>
       </c>
       <c r="D11" s="18">
-        <f t="shared" si="0"/>
-        <v>22.191529493435759</v>
+        <f>_xlfn.NORM.INV(C11,19.7,8.15)</f>
+        <v>23.693199385052704</v>
       </c>
       <c r="E11" s="18">
-        <f t="shared" si="1"/>
-        <v>22.33782259261789</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="2"/>
-        <v>29.745473957954644</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="3"/>
-        <v>23.302875427864315</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="4"/>
-        <v>25.062439634535256</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="5"/>
-        <v>23.13710990151484</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="6"/>
-        <v>19.61984110444493</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="7"/>
-        <v>6.9314377139321577</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="8"/>
-        <v>10.321463936647472</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="9"/>
-        <v>12.599827993087271</v>
-      </c>
-      <c r="N11" s="19">
-        <f t="shared" si="10"/>
-        <v>6.6273875789204233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+        <f>_xlfn.NORM.INV(C11,16.9,2.55)</f>
+        <v>18.149405942562503</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>0.74553999999999998</v>
+        <v>0.82355</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" si="0"/>
-        <v>23.25589762399445</v>
+        <f>_xlfn.NORM.INV(C12,16.7,7.03)</f>
+        <v>23.230721956699792</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" si="1"/>
-        <v>23.12256858718235</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="2"/>
-        <v>30.968337584952462</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="3"/>
-        <v>24.006440802301416</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="4"/>
-        <v>26.313652049514054</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="5"/>
-        <v>24.285235814744617</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="6"/>
-        <v>20.351755266863012</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="7"/>
-        <v>7.2832204011507091</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="8"/>
-        <v>10.876842464820347</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="9"/>
-        <v>13.229944235028192</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="10"/>
-        <v>6.9830360099545619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+        <f>_xlfn.NORM.INV(C12,19.4,4.59)</f>
+        <v>23.664013340149651</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2">
-        <v>0.67840999999999996</v>
+        <v>0.61865000000000003</v>
       </c>
       <c r="D13" s="18">
-        <f t="shared" si="0"/>
-        <v>21.626504706380519</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>21.921236520805977</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="2"/>
-        <v>29.096311097282218</v>
-      </c>
-      <c r="G13" s="18">
-        <f t="shared" si="3"/>
-        <v>22.929384466929495</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="4"/>
-        <v>24.398227687524798</v>
-      </c>
-      <c r="I13" s="18">
-        <f t="shared" si="5"/>
-        <v>22.527621904824507</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="6"/>
-        <v>19.231301057172079</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="7"/>
-        <v>6.7446922334647486</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="8"/>
-        <v>10.026638654297825</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="9"/>
-        <v>12.265327846755538</v>
-      </c>
-      <c r="N13" s="19">
-        <f t="shared" si="10"/>
-        <v>6.4385899503160093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
+        <f>_xlfn.NORM.INV(C13,19.2,1.54)</f>
+        <v>19.664983160501645</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>0.65920000000000001</v>
+        <v>0.82872000000000001</v>
       </c>
       <c r="D14" s="18">
-        <f t="shared" si="0"/>
-        <v>21.188919124466832</v>
-      </c>
-      <c r="E14" s="18">
-        <f t="shared" si="1"/>
-        <v>21.598609862954358</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="2"/>
-        <v>28.593564466245788</v>
-      </c>
-      <c r="G14" s="18">
-        <f t="shared" si="3"/>
-        <v>22.640132980579768</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="4"/>
-        <v>23.883826234694059</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="5"/>
-        <v>22.055601622154896</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="6"/>
-        <v>18.930394749028039</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="7"/>
-        <v>6.6000664902898851</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="8"/>
-        <v>9.7983101000547261</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="9"/>
-        <v>12.006272944145618</v>
-      </c>
-      <c r="N14" s="19">
-        <f t="shared" si="10"/>
-        <v>6.2923749132601028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
+        <f>_xlfn.NORM.INV(C14,17.5,4.34)</f>
+        <v>21.619177245144392</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="35">
         <v>2029</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="2">
-        <v>0.85504999999999998</v>
+        <v>0.35715000000000002</v>
       </c>
       <c r="D15" s="18">
-        <f t="shared" si="0"/>
-        <v>26.541896791126135</v>
+        <f>_xlfn.NORM.INV(C15,19.7,8.15)</f>
+        <v>16.716389227450378</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="1"/>
-        <v>25.545296786677746</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="2"/>
-        <v>34.743656240652179</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" si="3"/>
-        <v>26.178541946676596</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="4"/>
-        <v>30.176491264144644</v>
-      </c>
-      <c r="I15" s="18">
-        <f t="shared" si="5"/>
-        <v>27.829818451444773</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="6"/>
-        <v>22.611376970169061</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="7"/>
-        <v>8.3692709733382991</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="8"/>
-        <v>12.591449778420536</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="9"/>
-        <v>15.17528756762794</v>
-      </c>
-      <c r="N15" s="19">
-        <f t="shared" si="10"/>
-        <v>8.0810212038145437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
+        <f>_xlfn.NORM.INV(C15,16.9,2.55)</f>
+        <v>15.966477611042755</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2">
-        <v>0.18312</v>
+        <v>0.58691000000000004</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" si="0"/>
-        <v>10.336769426965642</v>
+        <f>_xlfn.NORM.INV(C16,16.7,7.03)</f>
+        <v>18.243812292208055</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="1"/>
-        <v>13.597448645305176</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="2"/>
-        <v>16.125416690303137</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="3"/>
-        <v>15.466678095790845</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="4"/>
-        <v>11.126638152038298</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="5"/>
-        <v>10.349469200274072</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="6"/>
-        <v>11.46789955752601</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="7"/>
-        <v>3.0133390478954238</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="8"/>
-        <v>4.1357477276297701</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="9"/>
-        <v>5.5816952176588357</v>
-      </c>
-      <c r="N16" s="19">
-        <f t="shared" si="10"/>
-        <v>2.6662328835865821</v>
-      </c>
+        <f>_xlfn.NORM.INV(C16,19.4,4.59)</f>
+        <v>20.407979860773111</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>2.962E-2</v>
+        <v>0.54071000000000002</v>
       </c>
       <c r="D17" s="18">
-        <f t="shared" si="0"/>
-        <v>2.2182702052710965</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" si="1"/>
-        <v>7.6117754903269965</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="2"/>
-        <v>6.7979884077509318</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" si="3"/>
-        <v>10.100212508569028</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="4"/>
-        <v>1.5829786553489491</v>
-      </c>
-      <c r="I17" s="18">
-        <f t="shared" si="5"/>
-        <v>1.5921050277197892</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="6"/>
-        <v>5.8852027561670504</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="7"/>
-        <v>0.33010625428451501</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="8"/>
-        <v>-0.10041833114789078</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="9"/>
-        <v>0.77546504888325174</v>
-      </c>
-      <c r="N17" s="19">
-        <f t="shared" si="10"/>
-        <v>-4.6485984679391024E-2</v>
-      </c>
+        <f>_xlfn.NORM.INV(C17,19.2,1.54)</f>
+        <v>19.35742278365203</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>0.97063999999999995</v>
+        <v>0.11686000000000001</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" si="0"/>
-        <v>33.413745067197191</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" si="1"/>
-        <v>30.61182899022166</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="2"/>
-        <v>42.638794272118801</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="3"/>
-        <v>30.720950129164244</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="4"/>
-        <v>38.254656731535675</v>
-      </c>
-      <c r="I18" s="18">
-        <f t="shared" si="5"/>
-        <v>35.242429606383411</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="6"/>
-        <v>27.336812588581118</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="7"/>
-        <v>10.640475064582123</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="8"/>
-        <v>16.177123636757855</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" si="9"/>
-        <v>19.243488302493251</v>
-      </c>
-      <c r="N18" s="19">
-        <f t="shared" si="10"/>
-        <v>10.377183581775332</v>
-      </c>
+        <f>_xlfn.NORM.INV(C18,17.5,4.34)</f>
+        <v>12.33179416235801</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="35">
         <v>2030</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>0.91829000000000005</v>
+        <v>0.82859000000000005</v>
       </c>
       <c r="D19" s="18">
-        <f t="shared" si="0"/>
-        <v>29.311639819903526</v>
+        <f>_xlfn.NORM.INV(C19,19.7,8.15)</f>
+        <v>27.431155531176802</v>
       </c>
       <c r="E19" s="18">
-        <f t="shared" si="1"/>
-        <v>27.587395460437346</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="2"/>
-        <v>37.925842843932742</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="3"/>
-        <v>28.009389033495548</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="4"/>
-        <v>33.432448262864796</v>
-      </c>
-      <c r="I19" s="18">
-        <f t="shared" si="5"/>
-        <v>30.817519466748234</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="6"/>
-        <v>24.515994452427606</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="7"/>
-        <v>9.2846945167477752</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="8"/>
-        <v>14.036678889077988</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="9"/>
-        <v>16.815002266262496</v>
-      </c>
-      <c r="N19" s="19">
-        <f t="shared" si="10"/>
-        <v>9.0065043466021457</v>
-      </c>
+        <f>_xlfn.NORM.INV(C19,16.9,2.55)</f>
+        <v>19.318950503619735</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2">
-        <v>0.50956999999999997</v>
+        <v>0.80867</v>
       </c>
       <c r="D20" s="18">
-        <f t="shared" si="0"/>
-        <v>17.998163460542834</v>
+        <f>_xlfn.NORM.INV(C20,16.7,7.03)</f>
+        <v>22.837229695355042</v>
       </c>
       <c r="E20" s="18">
-        <f t="shared" si="1"/>
-        <v>19.24610356836633</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="2"/>
-        <v>24.927672063020761</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="3"/>
-        <v>20.530989406121535</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="4"/>
-        <v>20.132950024439577</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="5"/>
-        <v>18.613757437462063</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="6"/>
-        <v>16.736267367540353</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="7"/>
-        <v>5.5454947030607675</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="8"/>
-        <v>8.1334000623413569</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="9"/>
-        <v>10.117314687900056</v>
-      </c>
-      <c r="N20" s="19">
-        <f t="shared" si="10"/>
-        <v>5.2262144250724241</v>
-      </c>
+        <f>_xlfn.NORM.INV(C20,19.4,4.59)</f>
+        <v>23.407095917735369</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="2">
-        <v>0.14509</v>
+        <v>0.83211000000000002</v>
       </c>
       <c r="D21" s="18">
-        <f t="shared" si="0"/>
-        <v>9.0631763904628428</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="1"/>
-        <v>12.658443609917519</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="2"/>
-        <v>14.662172390495442</v>
-      </c>
-      <c r="G21" s="18">
-        <f t="shared" si="3"/>
-        <v>14.624811512339843</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="4"/>
-        <v>9.6294724880622482</v>
-      </c>
-      <c r="I21" s="18">
-        <f t="shared" si="5"/>
-        <v>8.9756539514556781</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="6"/>
-        <v>10.592111609906652</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="7"/>
-        <v>2.5924057561699225</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="8"/>
-        <v>3.4711973659678987</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="9"/>
-        <v>4.8277158050076636</v>
-      </c>
-      <c r="N21" s="19">
-        <f t="shared" si="10"/>
-        <v>2.2406739512926688</v>
-      </c>
+        <f>_xlfn.NORM.INV(C21,19.2,1.54)</f>
+        <v>20.682306754677114</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="2">
-        <v>0.44825999999999999</v>
+        <v>6.4860000000000001E-2</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="0"/>
-        <v>16.72571529314607</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="1"/>
-        <v>18.307942631387359</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="2"/>
-        <v>23.465743115248934</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="3"/>
-        <v>19.689879600554182</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="4"/>
-        <v>18.637130205381155</v>
-      </c>
-      <c r="I22" s="18">
-        <f t="shared" si="5"/>
-        <v>17.241177150354901</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="6"/>
-        <v>15.861266690686403</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="7"/>
-        <v>5.1249398002770921</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="8"/>
-        <v>7.4694470839539422</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="9"/>
-        <v>9.3640130488479763</v>
-      </c>
-      <c r="N22" s="19">
-        <f t="shared" si="10"/>
-        <v>4.8010380398405763</v>
-      </c>
+        <f>_xlfn.NORM.INV(C22,17.5,4.34)</f>
+        <v>10.924001775422113</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="A23" s="35">
         <v>2031</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="2">
-        <v>0.90944999999999998</v>
+        <v>0.2011</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="0"/>
-        <v>28.846724100049826</v>
+        <f>_xlfn.NORM.INV(C23,19.7,8.15)</f>
+        <v>12.872756411021387</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="1"/>
-        <v>27.244618616138432</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="2"/>
-        <v>37.391696332865962</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="3"/>
-        <v>27.702071862744802</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="4"/>
-        <v>32.885919008654213</v>
-      </c>
-      <c r="I23" s="18">
-        <f t="shared" si="5"/>
-        <v>30.316018369424206</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="6"/>
-        <v>24.196294538533053</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="7"/>
-        <v>9.1310359313724021</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="8"/>
-        <v>13.794089693851664</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="9"/>
-        <v>16.539767657293421</v>
-      </c>
-      <c r="N23" s="19">
-        <f t="shared" si="10"/>
-        <v>8.8511572053435259</v>
-      </c>
+        <f>_xlfn.NORM.INV(C23,16.9,2.55)</f>
+        <v>14.763868570319573</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2">
-        <v>4.283E-2</v>
+        <v>0.72123000000000004</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="0"/>
-        <v>3.6031293799604001</v>
+        <f>_xlfn.NORM.INV(C24,16.7,7.03)</f>
+        <v>20.823090411690092</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="1"/>
-        <v>8.6328157292928385</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="2"/>
-        <v>8.3890675321821035</v>
-      </c>
-      <c r="G24" s="18">
-        <f t="shared" si="3"/>
-        <v>11.015627895228059</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="4"/>
-        <v>3.2109426488396444</v>
-      </c>
-      <c r="I24" s="18">
-        <f t="shared" si="5"/>
-        <v>3.0859422246304042</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="6"/>
-        <v>6.8375030118856035</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="7"/>
-        <v>0.78781394761403067</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="8"/>
-        <v>0.62218978542727843</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="9"/>
-        <v>1.5953150929789786</v>
-      </c>
-      <c r="N24" s="19">
-        <f t="shared" si="10"/>
-        <v>0.4162514635218777</v>
-      </c>
+        <f>_xlfn.NORM.INV(C24,19.4,4.59)</f>
+        <v>22.092032004218709</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="2">
-        <v>0.57503000000000004</v>
+        <v>0.79405000000000003</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="0"/>
-        <v>19.362750555815175</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" si="1"/>
-        <v>20.252197443694239</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="2"/>
-        <v>26.49546038434455</v>
-      </c>
-      <c r="G25" s="18">
-        <f t="shared" si="3"/>
-        <v>21.433004604691384</v>
-      </c>
-      <c r="H25" s="18">
-        <f t="shared" si="4"/>
-        <v>21.737083280504276</v>
-      </c>
-      <c r="I25" s="18">
-        <f t="shared" si="5"/>
-        <v>20.08572729446891</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="6"/>
-        <v>17.674627500851113</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="7"/>
-        <v>5.9965023023456938</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="8"/>
-        <v>8.8454303747655452</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="9"/>
-        <v>10.925163464641187</v>
-      </c>
-      <c r="N25" s="19">
-        <f t="shared" si="10"/>
-        <v>5.6821781518220194</v>
-      </c>
+        <f>_xlfn.NORM.INV(C25,19.2,1.54)</f>
+        <v>20.463654129239426</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="2">
-        <v>9.8280000000000006E-2</v>
+        <v>0.54749000000000003</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="0"/>
-        <v>7.1329165801358823</v>
-      </c>
-      <c r="E26" s="18">
-        <f t="shared" si="1"/>
-        <v>11.235285953151033</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="2"/>
-        <v>12.444476797274758</v>
-      </c>
-      <c r="G26" s="18">
-        <f t="shared" si="3"/>
-        <v>13.348877061445751</v>
-      </c>
-      <c r="H26" s="18">
-        <f t="shared" si="4"/>
-        <v>7.3603656166004097</v>
-      </c>
-      <c r="I26" s="18">
-        <f t="shared" si="5"/>
-        <v>6.8934971826889466</v>
-      </c>
-      <c r="J26" s="18">
-        <f t="shared" si="6"/>
-        <v>9.2647658807714066</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="7"/>
-        <v>1.9544385307228764</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="8"/>
-        <v>2.4640036876980203</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="9"/>
-        <v>3.6849833022838334</v>
-      </c>
-      <c r="N26" s="19">
-        <f t="shared" si="10"/>
-        <v>1.5956960969945566</v>
-      </c>
+        <f>_xlfn.NORM.INV(C26,17.5,4.34)</f>
+        <v>18.017858874399739</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="31">
+      <c r="A27" s="35">
         <v>2032</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="2">
-        <v>0.2676</v>
+        <v>0.53291999999999995</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" si="0"/>
-        <v>12.678074975160889</v>
+        <f>_xlfn.NORM.INV(C27,19.7,8.15)</f>
+        <v>20.373288407520207</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="1"/>
-        <v>15.323665447788116</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="2"/>
-        <v>18.81536701141366</v>
-      </c>
-      <c r="G27" s="18">
-        <f t="shared" si="3"/>
-        <v>17.014320746292789</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="4"/>
-        <v>13.878947700824725</v>
-      </c>
-      <c r="I27" s="18">
-        <f t="shared" si="5"/>
-        <v>12.875017921148125</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" si="6"/>
-        <v>13.077901435703858</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" si="7"/>
-        <v>3.7871603731463961</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="8"/>
-        <v>5.3574216880076797</v>
-      </c>
-      <c r="M27" s="18">
-        <f t="shared" si="9"/>
-        <v>6.9677707782732146</v>
-      </c>
-      <c r="N27" s="19">
-        <f t="shared" si="10"/>
-        <v>3.4485577398842686</v>
-      </c>
+        <f>_xlfn.NORM.INV(C27,16.9,2.55)</f>
+        <v>17.11066079008301</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="2">
-        <v>0.29276999999999997</v>
+        <v>0.37524999999999997</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="0"/>
-        <v>13.295735465193664</v>
+        <f>_xlfn.NORM.INV(C28,16.7,7.03)</f>
+        <v>14.464599600437783</v>
       </c>
       <c r="E28" s="18">
-        <f t="shared" si="1"/>
-        <v>15.779059198913973</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="2"/>
-        <v>19.52500357926003</v>
-      </c>
-      <c r="G28" s="18">
-        <f t="shared" si="3"/>
-        <v>17.422604799026317</v>
-      </c>
-      <c r="H28" s="18">
-        <f t="shared" si="4"/>
-        <v>14.605035274458892</v>
-      </c>
-      <c r="I28" s="18">
-        <f t="shared" si="5"/>
-        <v>13.541283655553938</v>
-      </c>
-      <c r="J28" s="18">
-        <f t="shared" si="6"/>
-        <v>13.502636494225184</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" si="7"/>
-        <v>3.9913023995131605</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="8"/>
-        <v>5.6797118468504459</v>
-      </c>
-      <c r="M28" s="18">
-        <f t="shared" si="9"/>
-        <v>7.3334317705565386</v>
-      </c>
-      <c r="N28" s="19">
-        <f t="shared" si="10"/>
-        <v>3.6549430852220959</v>
-      </c>
+        <f>_xlfn.NORM.INV(C28,19.4,4.59)</f>
+        <v>17.94047114736976</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="2">
-        <v>0.17865</v>
+        <v>9.5640000000000003E-2</v>
       </c>
       <c r="D29" s="18">
-        <f t="shared" si="0"/>
-        <v>10.196487618456128</v>
-      </c>
-      <c r="E29" s="18">
-        <f t="shared" si="1"/>
-        <v>13.494020532251552</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="2"/>
-        <v>15.964245459945355</v>
-      </c>
-      <c r="G29" s="18">
-        <f t="shared" si="3"/>
-        <v>15.373949442708286</v>
-      </c>
-      <c r="H29" s="18">
-        <f t="shared" si="4"/>
-        <v>10.961730602325542</v>
-      </c>
-      <c r="I29" s="18">
-        <f t="shared" si="5"/>
-        <v>10.198148266397588</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" si="6"/>
-        <v>11.371434585088476</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" si="7"/>
-        <v>2.966974721354144</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="8"/>
-        <v>4.0625498348118523</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" si="9"/>
-        <v>5.4986470283596196</v>
-      </c>
-      <c r="N29" s="19">
-        <f t="shared" si="10"/>
-        <v>2.6193590589514422</v>
-      </c>
+        <f>_xlfn.NORM.INV(C29,19.2,1.54)</f>
+        <v>17.18752507522667</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="2">
-        <v>0.87319999999999998</v>
+        <v>0.16303999999999999</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" si="0"/>
-        <v>27.230019700560078</v>
-      </c>
-      <c r="E30" s="18">
-        <f t="shared" si="1"/>
-        <v>26.052641643633276</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="2"/>
-        <v>35.534247815776652</v>
-      </c>
-      <c r="G30" s="18">
-        <f t="shared" si="3"/>
-        <v>26.633402852912589</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="4"/>
-        <v>30.985410568091808</v>
-      </c>
-      <c r="I30" s="18">
-        <f t="shared" si="5"/>
-        <v>28.572091468763954</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="6"/>
-        <v>23.084565605227752</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="7"/>
-        <v>8.5967014264562955</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="8"/>
-        <v>12.950506647628803</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="9"/>
-        <v>15.582662994641497</v>
-      </c>
-      <c r="N30" s="19">
-        <f t="shared" si="10"/>
-        <v>8.31095089268109</v>
-      </c>
+        <f>_xlfn.NORM.INV(C30,17.5,4.34)</f>
+        <v>13.23794514424155</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="31">
+      <c r="A31" s="35">
         <v>2033</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>0.33291999999999999</v>
+        <v>0.56381999999999999</v>
       </c>
       <c r="D31" s="18">
-        <f t="shared" si="0"/>
-        <v>14.232800394752605</v>
+        <f>_xlfn.NORM.INV(C31,19.7,8.15)</f>
+        <v>21.009391369734217</v>
       </c>
       <c r="E31" s="18">
-        <f t="shared" si="1"/>
-        <v>16.469946053758278</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="2"/>
-        <v>20.601607233196393</v>
-      </c>
-      <c r="G31" s="18">
-        <f t="shared" si="3"/>
-        <v>18.042020599921212</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="4"/>
-        <v>15.706597074218859</v>
-      </c>
-      <c r="I31" s="18">
-        <f t="shared" si="5"/>
-        <v>14.55208856140989</v>
-      </c>
-      <c r="J31" s="18">
-        <f t="shared" si="6"/>
-        <v>14.147010440943681</v>
-      </c>
-      <c r="K31" s="18">
-        <f t="shared" si="7"/>
-        <v>4.3010102999606072</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="8"/>
-        <v>6.1686646127583193</v>
-      </c>
-      <c r="M31" s="18">
-        <f t="shared" si="9"/>
-        <v>7.888183284544823</v>
-      </c>
-      <c r="N31" s="19">
-        <f t="shared" si="10"/>
-        <v>3.9680543691909431</v>
-      </c>
+        <f>_xlfn.NORM.INV(C31,16.9,2.55)</f>
+        <v>17.309686870284938</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="2">
-        <v>0.22234999999999999</v>
+        <v>0.34345999999999999</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" si="0"/>
-        <v>11.487041636993375</v>
+        <f>_xlfn.NORM.INV(C32,16.7,7.03)</f>
+        <v>13.866640281080565</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" si="1"/>
-        <v>14.445530698461219</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="2"/>
-        <v>17.446976408603767</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" si="3"/>
-        <v>16.22702752275833</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" si="4"/>
-        <v>12.478834660436519</v>
-      </c>
-      <c r="I32" s="18">
-        <f t="shared" si="5"/>
-        <v>11.590259199226509</v>
-      </c>
-      <c r="J32" s="18">
-        <f t="shared" si="6"/>
-        <v>12.258885774591086</v>
-      </c>
-      <c r="K32" s="18">
-        <f t="shared" si="7"/>
-        <v>3.3935137613791664</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="8"/>
-        <v>4.7359502972689391</v>
-      </c>
-      <c r="M32" s="18">
-        <f t="shared" si="9"/>
-        <v>6.2626675066461992</v>
-      </c>
-      <c r="N32" s="19">
-        <f t="shared" si="10"/>
-        <v>3.0505853411745418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
+        <f>_xlfn.NORM.INV(C32,19.4,4.59)</f>
+        <v>17.550053896182046</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
       <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="2">
-        <v>0.45611000000000002</v>
+        <v>0.23227</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="0"/>
-        <v>16.889427597124065</v>
-      </c>
-      <c r="E33" s="18">
-        <f t="shared" si="1"/>
-        <v>18.428645770760962</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="2"/>
-        <v>23.653833885799923</v>
-      </c>
-      <c r="G33" s="18">
-        <f t="shared" si="3"/>
-        <v>19.798096208268447</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="4"/>
-        <v>18.829581352067148</v>
-      </c>
-      <c r="I33" s="18">
-        <f t="shared" si="5"/>
-        <v>17.417772383822687</v>
-      </c>
-      <c r="J33" s="18">
-        <f t="shared" si="6"/>
-        <v>15.973843674535678</v>
-      </c>
-      <c r="K33" s="18">
-        <f t="shared" si="7"/>
-        <v>5.1790481041342247</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="8"/>
-        <v>7.5548708164170346</v>
-      </c>
-      <c r="M33" s="18">
-        <f t="shared" si="9"/>
-        <v>9.4609323183942706</v>
-      </c>
-      <c r="N33" s="19">
-        <f t="shared" si="10"/>
-        <v>4.8557409404433916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+        <f>_xlfn.NORM.INV(C33,19.2,1.54)</f>
+        <v>18.073656949663512</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
       <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2">
-        <v>0.56642999999999999</v>
+        <v>0.44590999999999997</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="0"/>
-        <v>19.181835053866216</v>
-      </c>
-      <c r="E34" s="18">
-        <f t="shared" si="1"/>
-        <v>20.118810590562379</v>
-      </c>
-      <c r="F34" s="18">
-        <f t="shared" si="2"/>
-        <v>26.287604680531523</v>
-      </c>
-      <c r="G34" s="18">
-        <f t="shared" si="3"/>
-        <v>21.313416391538684</v>
-      </c>
-      <c r="H34" s="18">
-        <f t="shared" si="4"/>
-        <v>21.524409004000113</v>
-      </c>
-      <c r="I34" s="18">
-        <f t="shared" si="5"/>
-        <v>19.89057510047796</v>
-      </c>
-      <c r="J34" s="18">
-        <f t="shared" si="6"/>
-        <v>17.550220715007278</v>
-      </c>
-      <c r="K34" s="18">
-        <f t="shared" si="7"/>
-        <v>5.9367081957693424</v>
-      </c>
-      <c r="L34" s="18">
-        <f t="shared" si="8"/>
-        <v>8.7510301552255907</v>
-      </c>
-      <c r="M34" s="18">
-        <f t="shared" si="9"/>
-        <v>10.818059735279151</v>
-      </c>
-      <c r="N34" s="19">
-        <f t="shared" si="10"/>
-        <v>5.6217269671514227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="31">
+        <f>_xlfn.NORM.INV(C34,17.5,4.34)</f>
+        <v>16.909752967605485</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="35">
         <v>2034</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="2">
-        <v>0.84608000000000005</v>
+        <v>0.58508000000000004</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="0"/>
-        <v>26.223257613588565</v>
+        <f>_xlfn.NORM.INV(C35,19.7,8.15)</f>
+        <v>21.45149024362582</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="1"/>
-        <v>25.310367901544112</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" si="2"/>
-        <v>34.377568372028506</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="3"/>
-        <v>25.967916049660236</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" si="4"/>
-        <v>29.801916637765736</v>
-      </c>
-      <c r="I35" s="18">
-        <f t="shared" si="5"/>
-        <v>27.486104762357641</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" si="6"/>
-        <v>22.392264315397465</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" si="7"/>
-        <v>8.263958024830119</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="8"/>
-        <v>12.425186478761102</v>
-      </c>
-      <c r="M35" s="18">
-        <f t="shared" si="9"/>
-        <v>14.986650088431972</v>
-      </c>
-      <c r="N35" s="19">
-        <f t="shared" si="10"/>
-        <v>7.9745509701579227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
+        <f>_xlfn.NORM.INV(C35,16.9,2.55)</f>
+        <v>17.448012284815441</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
       <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="2">
-        <v>0.90851000000000004</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="D36" s="18">
-        <f t="shared" si="0"/>
-        <v>28.799309068670844</v>
+        <f>_xlfn.NORM.INV(C36,16.7,7.03)</f>
+        <v>29.942700147194387</v>
       </c>
       <c r="E36" s="18">
-        <f t="shared" si="1"/>
-        <v>27.209660076053929</v>
-      </c>
-      <c r="F36" s="18">
-        <f t="shared" si="2"/>
-        <v>37.337220709647255</v>
-      </c>
-      <c r="G36" s="18">
-        <f t="shared" si="3"/>
-        <v>27.670729723358694</v>
-      </c>
-      <c r="H36" s="18">
-        <f t="shared" si="4"/>
-        <v>32.830180515350349</v>
-      </c>
-      <c r="I36" s="18">
-        <f t="shared" si="5"/>
-        <v>30.264872130975448</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" si="6"/>
-        <v>24.163689529061791</v>
-      </c>
-      <c r="K36" s="18">
-        <f t="shared" si="7"/>
-        <v>9.1153648616793479</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" si="8"/>
-        <v>13.769348920819773</v>
-      </c>
-      <c r="M36" s="18">
-        <f t="shared" si="9"/>
-        <v>16.511697499491575</v>
-      </c>
-      <c r="N36" s="19">
-        <f t="shared" si="10"/>
-        <v>8.8353139260934057</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
+        <f>_xlfn.NORM.INV(C36,19.4,4.59)</f>
+        <v>28.046371788850955</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="2">
-        <v>0.49503999999999998</v>
+        <v>0.83725000000000005</v>
       </c>
       <c r="D37" s="18">
-        <f t="shared" si="0"/>
-        <v>17.697301796378063</v>
-      </c>
-      <c r="E37" s="18">
-        <f t="shared" si="1"/>
-        <v>19.02428183292281</v>
-      </c>
-      <c r="F37" s="18">
-        <f t="shared" si="2"/>
-        <v>24.582008964603851</v>
-      </c>
-      <c r="G37" s="18">
-        <f t="shared" si="3"/>
-        <v>20.332114746758378</v>
-      </c>
-      <c r="H37" s="18">
-        <f t="shared" si="4"/>
-        <v>19.779273661359682</v>
-      </c>
-      <c r="I37" s="18">
-        <f t="shared" si="5"/>
-        <v>18.289220218611199</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" si="6"/>
-        <v>16.529379443514213</v>
-      </c>
-      <c r="K37" s="18">
-        <f t="shared" si="7"/>
-        <v>5.4460573733791904</v>
-      </c>
-      <c r="L37" s="18">
-        <f t="shared" si="8"/>
-        <v>7.9764129228074383</v>
-      </c>
-      <c r="M37" s="18">
-        <f t="shared" si="9"/>
-        <v>9.9392016688000879</v>
-      </c>
-      <c r="N37" s="19">
-        <f t="shared" si="10"/>
-        <v>5.1256843774822576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+        <f>_xlfn.NORM.INV(C37,19.2,1.54)</f>
+        <v>20.714156213248017</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="35"/>
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="2">
-        <v>6.5140000000000003E-2</v>
+        <v>0.1205</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" si="0"/>
-        <v>5.3026310933866085</v>
-      </c>
-      <c r="E38" s="18">
-        <f t="shared" si="1"/>
-        <v>9.8858381790223309</v>
-      </c>
-      <c r="F38" s="18">
-        <f t="shared" si="2"/>
-        <v>10.341642745307373</v>
-      </c>
-      <c r="G38" s="18">
-        <f t="shared" si="3"/>
-        <v>12.139027332916569</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" si="4"/>
-        <v>5.2087830407728735</v>
-      </c>
-      <c r="I38" s="18">
-        <f t="shared" si="5"/>
-        <v>4.9191819663528644</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" si="6"/>
-        <v>8.0061676283820766</v>
-      </c>
-      <c r="K38" s="18">
-        <f t="shared" si="7"/>
-        <v>1.3495136664582859</v>
-      </c>
-      <c r="L38" s="18">
-        <f t="shared" si="8"/>
-        <v>1.5089757884378061</v>
-      </c>
-      <c r="M38" s="18">
-        <f t="shared" si="9"/>
-        <v>2.6014365673923141</v>
-      </c>
-      <c r="N38" s="19">
-        <f t="shared" si="10"/>
-        <v>0.98412370674903649</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="31">
+        <f>_xlfn.NORM.INV(C38,17.5,4.34)</f>
+        <v>12.411389239680238</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="35">
         <v>2035</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="2">
-        <v>0.97433999999999998</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="D39" s="18">
-        <f t="shared" si="0"/>
-        <v>33.897040555059128</v>
+        <f>_xlfn.NORM.INV(C39,19.7,8.15)</f>
+        <v>32.216352765282316</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="1"/>
-        <v>30.968157019408004</v>
-      </c>
-      <c r="F39" s="18">
-        <f t="shared" si="2"/>
-        <v>43.194057490013449</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="3"/>
-        <v>31.04041663808993</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="4"/>
-        <v>38.822792226346749</v>
-      </c>
-      <c r="I39" s="18">
-        <f t="shared" si="5"/>
-        <v>35.763756821498404</v>
-      </c>
-      <c r="J39" s="18">
-        <f t="shared" si="6"/>
-        <v>27.669151374423226</v>
-      </c>
-      <c r="K39" s="18">
-        <f t="shared" si="7"/>
-        <v>10.800208319044966</v>
-      </c>
-      <c r="L39" s="18">
-        <f t="shared" si="8"/>
-        <v>16.429303243620438</v>
-      </c>
-      <c r="M39" s="18">
-        <f t="shared" si="9"/>
-        <v>19.529603912135485</v>
-      </c>
-      <c r="N39" s="19">
-        <f t="shared" si="10"/>
-        <v>10.538672146726778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+        <f>_xlfn.NORM.INV(C39,16.9,2.55)</f>
+        <v>20.816159454168083</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="2">
-        <v>6.8409999999999999E-2</v>
+        <v>5.9650000000000002E-2</v>
       </c>
       <c r="D40" s="18">
-        <f t="shared" si="0"/>
-        <v>5.5112840568298811</v>
+        <f>_xlfn.NORM.INV(C40,16.7,7.03)</f>
+        <v>5.7492391508545921</v>
       </c>
       <c r="E40" s="18">
-        <f t="shared" si="1"/>
-        <v>10.039675533425422</v>
-      </c>
-      <c r="F40" s="18">
-        <f t="shared" si="2"/>
-        <v>10.58136630742319</v>
-      </c>
-      <c r="G40" s="18">
-        <f t="shared" si="3"/>
-        <v>12.27695047824348</v>
-      </c>
-      <c r="H40" s="18">
-        <f t="shared" si="4"/>
-        <v>5.4540639457406925</v>
-      </c>
-      <c r="I40" s="18">
-        <f t="shared" si="5"/>
-        <v>5.1442543518588639</v>
-      </c>
-      <c r="J40" s="18">
-        <f t="shared" si="6"/>
-        <v>8.1496481165609858</v>
-      </c>
-      <c r="K40" s="18">
-        <f t="shared" si="7"/>
-        <v>1.418475239121741</v>
-      </c>
-      <c r="L40" s="18">
-        <f t="shared" si="8"/>
-        <v>1.6178491870383516</v>
-      </c>
-      <c r="M40" s="18">
-        <f t="shared" si="9"/>
-        <v>2.7249611426026776</v>
-      </c>
-      <c r="N40" s="19">
-        <f t="shared" si="10"/>
-        <v>1.0538430988923091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+        <f>_xlfn.NORM.INV(C40,19.4,4.59)</f>
+        <v>12.250072219405773</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2">
-        <v>0.92825999999999997</v>
+        <v>0.67435</v>
       </c>
       <c r="D41" s="18">
-        <f t="shared" si="0"/>
-        <v>29.883999025342909</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="1"/>
-        <v>28.009389111905367</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="2"/>
-        <v>38.583432294249903</v>
-      </c>
-      <c r="G41" s="18">
-        <f t="shared" si="3"/>
-        <v>28.387728169294466</v>
-      </c>
-      <c r="H41" s="18">
-        <f t="shared" si="4"/>
-        <v>34.10528214722514</v>
-      </c>
-      <c r="I41" s="18">
-        <f t="shared" si="5"/>
-        <v>31.434919045497011</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="6"/>
-        <v>24.909578022269702</v>
-      </c>
-      <c r="K41" s="18">
-        <f t="shared" si="7"/>
-        <v>9.473864084647234</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="8"/>
-        <v>14.335331210560284</v>
-      </c>
-      <c r="M41" s="18">
-        <f t="shared" si="9"/>
-        <v>17.153844459313177</v>
-      </c>
-      <c r="N41" s="19">
-        <f t="shared" si="10"/>
-        <v>9.1977527009620381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
+        <f>_xlfn.NORM.INV(C41,19.2,1.54)</f>
+        <v>19.896013694721201</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="2">
-        <v>0.54757</v>
+        <v>0.23852999999999999</v>
       </c>
       <c r="D42" s="18">
-        <f t="shared" si="0"/>
-        <v>18.787270607622347</v>
-      </c>
-      <c r="E42" s="18">
-        <f t="shared" si="1"/>
-        <v>19.827902905619869</v>
-      </c>
-      <c r="F42" s="18">
-        <f t="shared" si="2"/>
-        <v>25.834285480185965</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" si="3"/>
-        <v>21.052602605038498</v>
-      </c>
-      <c r="H42" s="18">
-        <f t="shared" si="4"/>
-        <v>21.060580823246124</v>
-      </c>
-      <c r="I42" s="18">
-        <f t="shared" si="5"/>
-        <v>19.464961393936452</v>
-      </c>
-      <c r="J42" s="18">
-        <f t="shared" si="6"/>
-        <v>17.27889794809866</v>
-      </c>
-      <c r="K42" s="18">
-        <f t="shared" si="7"/>
-        <v>5.8063013025192509</v>
-      </c>
-      <c r="L42" s="18">
-        <f t="shared" si="8"/>
-        <v>8.5451496754058489</v>
-      </c>
-      <c r="M42" s="18">
-        <f t="shared" si="9"/>
-        <v>10.58447376165536</v>
-      </c>
-      <c r="N42" s="19">
-        <f t="shared" si="10"/>
-        <v>5.4898870311183634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="31">
+        <f>_xlfn.NORM.INV(C42,17.5,4.34)</f>
+        <v>14.414090259438627</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="35">
         <v>2036</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="2">
-        <v>0.91105999999999998</v>
+        <v>0.2858</v>
       </c>
       <c r="D43" s="18">
-        <f t="shared" si="0"/>
-        <v>28.92879119075311</v>
+        <f>_xlfn.NORM.INV(C43,19.7,8.15)</f>
+        <v>15.089572147549172</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="1"/>
-        <v>27.305125708436616</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="2"/>
-        <v>37.485984067826514</v>
-      </c>
-      <c r="G43" s="18">
-        <f t="shared" si="3"/>
-        <v>27.756319600667311</v>
-      </c>
-      <c r="H43" s="18">
-        <f t="shared" si="4"/>
-        <v>32.982392549904688</v>
-      </c>
-      <c r="I43" s="18">
-        <f t="shared" si="5"/>
-        <v>30.404543524165884</v>
-      </c>
-      <c r="J43" s="18">
-        <f t="shared" si="6"/>
-        <v>24.252728082745481</v>
-      </c>
-      <c r="K43" s="18">
-        <f t="shared" si="7"/>
-        <v>9.1581598003336566</v>
-      </c>
-      <c r="L43" s="18">
-        <f t="shared" si="8"/>
-        <v>13.836911626167783</v>
-      </c>
-      <c r="M43" s="18">
-        <f t="shared" si="9"/>
-        <v>16.588352169828415</v>
-      </c>
-      <c r="N43" s="19">
-        <f t="shared" si="10"/>
-        <v>8.8785791387988606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
+        <f>_xlfn.NORM.INV(C43,16.9,2.55)</f>
+        <v>15.457473494018451</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="35"/>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2">
-        <v>0.77854999999999996</v>
+        <v>1.524E-2</v>
       </c>
       <c r="D44" s="18">
-        <f t="shared" si="0"/>
-        <v>24.137942028313724</v>
+        <f>_xlfn.NORM.INV(C44,16.7,7.03)</f>
+        <v>1.4885132709317759</v>
       </c>
       <c r="E44" s="18">
-        <f t="shared" si="1"/>
-        <v>23.772889461553341</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="2"/>
-        <v>31.981727584588043</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="3"/>
-        <v>24.589487103461611</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" si="4"/>
-        <v>27.350534757254991</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="5"/>
-        <v>25.236690493011533</v>
-      </c>
-      <c r="J44" s="18">
-        <f t="shared" si="6"/>
-        <v>20.958294276128566</v>
-      </c>
-      <c r="K44" s="18">
-        <f t="shared" si="7"/>
-        <v>7.5747435517308066</v>
-      </c>
-      <c r="L44" s="18">
-        <f t="shared" si="8"/>
-        <v>11.337085973611639</v>
-      </c>
-      <c r="M44" s="18">
-        <f t="shared" si="9"/>
-        <v>13.752123065188147</v>
-      </c>
-      <c r="N44" s="19">
-        <f t="shared" si="10"/>
-        <v>7.2777627116399364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
+        <f>_xlfn.NORM.INV(C44,19.4,4.59)</f>
+        <v>9.4681758056297074</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2">
-        <v>9.2869999999999994E-2</v>
+        <v>0.3528</v>
       </c>
       <c r="D45" s="18">
-        <f t="shared" si="0"/>
-        <v>6.8696505423217875</v>
-      </c>
-      <c r="E45" s="18">
-        <f t="shared" si="1"/>
-        <v>11.041183026966065</v>
-      </c>
-      <c r="F45" s="18">
-        <f t="shared" si="2"/>
-        <v>12.142007705403602</v>
-      </c>
-      <c r="G45" s="18">
-        <f t="shared" si="3"/>
-        <v>13.174853748314401</v>
-      </c>
-      <c r="H45" s="18">
-        <f t="shared" si="4"/>
-        <v>7.0508845963613229</v>
-      </c>
-      <c r="I45" s="18">
-        <f t="shared" si="5"/>
-        <v>6.6095140837877846</v>
-      </c>
-      <c r="J45" s="18">
-        <f t="shared" si="6"/>
-        <v>9.083730639272126</v>
-      </c>
-      <c r="K45" s="18">
-        <f t="shared" si="7"/>
-        <v>1.8674268741572013</v>
-      </c>
-      <c r="L45" s="18">
-        <f t="shared" si="8"/>
-        <v>2.3266336364899391</v>
-      </c>
-      <c r="M45" s="18">
-        <f t="shared" si="9"/>
-        <v>3.5291272581057553</v>
-      </c>
-      <c r="N45" s="19">
-        <f t="shared" si="10"/>
-        <v>1.5077282683787088</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="31"/>
+        <f>_xlfn.NORM.INV(C45,19.2,1.54)</f>
+        <v>18.618231170206148</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="19"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="35"/>
       <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="14">
-        <v>0.73751</v>
-      </c>
-      <c r="D46" s="20">
-        <f t="shared" si="0"/>
-        <v>23.050780337859379</v>
-      </c>
-      <c r="E46" s="20">
-        <f t="shared" si="1"/>
-        <v>22.971338045709881</v>
-      </c>
-      <c r="F46" s="20">
-        <f t="shared" si="2"/>
-        <v>30.73267619930817</v>
-      </c>
-      <c r="G46" s="20">
-        <f t="shared" si="3"/>
-        <v>23.870854799601958</v>
-      </c>
-      <c r="H46" s="20">
-        <f t="shared" si="4"/>
-        <v>26.072527491599821</v>
-      </c>
-      <c r="I46" s="20">
-        <f t="shared" si="5"/>
-        <v>24.063977337811991</v>
-      </c>
-      <c r="J46" s="20">
-        <f t="shared" si="6"/>
-        <v>20.210706091893616</v>
-      </c>
-      <c r="K46" s="20">
-        <f t="shared" si="7"/>
-        <v>7.2154273998009808</v>
-      </c>
-      <c r="L46" s="20">
-        <f t="shared" si="8"/>
-        <v>10.769813953531949</v>
-      </c>
-      <c r="M46" s="20">
-        <f t="shared" si="9"/>
-        <v>13.10851281502813</v>
-      </c>
-      <c r="N46" s="21">
-        <f t="shared" si="10"/>
-        <v>6.9144980305680246</v>
-      </c>
+        <v>0.14435000000000001</v>
+      </c>
+      <c r="D46" s="18">
+        <f>_xlfn.NORM.INV(C46,17.5,4.34)</f>
+        <v>12.895356441234949</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="32">
+        <f>SUM(D3:N30)</f>
+        <v>769.96790215207614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C47" s="43"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C48" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5347,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7A95FA-F9C0-4AA8-A2B2-EE56E93ED3D3}">
   <dimension ref="A1:AN206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5385,68 +4499,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="P1" s="32">
-        <v>2017</v>
-      </c>
-      <c r="Q1" s="32"/>
-      <c r="T1" s="32">
-        <v>2017</v>
-      </c>
-      <c r="U1" s="32"/>
-      <c r="X1" s="32">
-        <v>2017</v>
-      </c>
-      <c r="Y1" s="32"/>
-      <c r="AB1" s="32">
-        <v>2017</v>
-      </c>
-      <c r="AC1" s="32"/>
-      <c r="AF1" s="32">
-        <v>2017</v>
-      </c>
-      <c r="AG1" s="32"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
-      <c r="P2" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="P2" s="8"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="T2" s="8"/>
       <c r="U2" s="23"/>
       <c r="W2" s="23"/>
-      <c r="X2" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="X2" s="8"/>
       <c r="Y2" s="23"/>
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
-      <c r="AB2" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="AB2" s="8"/>
       <c r="AC2" s="23"/>
       <c r="AD2" s="23"/>
       <c r="AE2" s="23"/>
-      <c r="AF2" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="AF2" s="8"/>
       <c r="AG2" s="23"/>
       <c r="AH2" s="23"/>
       <c r="AL2" s="23"/>
@@ -5491,59 +4585,24 @@
         <v>69</v>
       </c>
       <c r="N3" s="8"/>
-      <c r="O3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="30">
-        <f>D4/C$4</f>
-        <v>2.8368794326241134E-2</v>
-      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="30">
-        <f>D5/C$5</f>
-        <v>3.5398230088495575E-2</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="29">
-        <f>D6/C$6</f>
-        <v>1.9417475728155338E-2</v>
-      </c>
+      <c r="S3" s="33"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="29"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="8"/>
-      <c r="AA3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="29">
-        <f>D7/C$7</f>
-        <v>1.9230769230769232E-2</v>
-      </c>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="29"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="29">
-        <f>D8/C$8</f>
-        <v>2.9126213592233011E-2</v>
-      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="29"/>
       <c r="AH3" s="8"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
@@ -5589,48 +4648,23 @@
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="30">
-        <f>E4/C$4</f>
-        <v>0.14893617021276595</v>
-      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="8"/>
       <c r="S4" s="33"/>
-      <c r="T4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" s="30">
-        <f>E5/C$5</f>
-        <v>0.20353982300884957</v>
-      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="29"/>
       <c r="W4" s="33"/>
-      <c r="X4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="29">
-        <f>E6/C$6</f>
-        <v>0.26213592233009708</v>
-      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="29"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="33"/>
-      <c r="AB4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC4" s="29">
-        <f>E7/C$7</f>
-        <v>0.24038461538461539</v>
-      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="29"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="33"/>
-      <c r="AF4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" s="29">
-        <f>E8/C$8</f>
-        <v>0.23300970873786409</v>
-      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="29"/>
       <c r="AH4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
@@ -5676,48 +4710,23 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="30">
-        <f>F4/C4</f>
-        <v>9.9290780141843976E-2</v>
-      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="8"/>
       <c r="S5" s="33"/>
-      <c r="T5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="30">
-        <f>F5/C$5</f>
-        <v>9.7345132743362831E-2</v>
-      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="29"/>
       <c r="W5" s="33"/>
-      <c r="X5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="29">
-        <f>F6/C$6</f>
-        <v>8.7378640776699032E-2</v>
-      </c>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="33"/>
-      <c r="AB5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="29">
-        <f>F7/C$7</f>
-        <v>9.6153846153846159E-2</v>
-      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="33"/>
-      <c r="AF5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG5" s="29">
-        <f>F8/C$8</f>
-        <v>0.10679611650485436</v>
-      </c>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="29"/>
       <c r="AH5" s="8"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
@@ -5763,51 +4772,23 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="33"/>
-      <c r="P6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="30">
-        <f>G4/C$4</f>
-        <v>4.9645390070921988E-2</v>
-      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="29"/>
       <c r="R6" s="8"/>
       <c r="S6" s="33"/>
-      <c r="T6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="30">
-        <f>G5/C$5</f>
-        <v>5.3097345132743362E-2</v>
-      </c>
-      <c r="V6" t="s">
-        <v>103</v>
-      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="29"/>
       <c r="W6" s="33"/>
-      <c r="X6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="29">
-        <f>G6/C$6</f>
-        <v>5.8252427184466021E-2</v>
-      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="33"/>
-      <c r="AB6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="29">
-        <f>G7/C$7</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="33"/>
-      <c r="AF6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG6" s="29">
-        <f>G8/C$8</f>
-        <v>4.8543689320388349E-2</v>
-      </c>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="29"/>
       <c r="AH6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
@@ -5853,48 +4834,23 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="33"/>
-      <c r="P7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="30">
-        <f>H4/C4</f>
-        <v>0.11347517730496454</v>
-      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="8"/>
       <c r="S7" s="33"/>
-      <c r="T7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="30">
-        <f>H5/C$5</f>
-        <v>9.7345132743362831E-2</v>
-      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="29"/>
       <c r="W7" s="33"/>
-      <c r="X7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y7" s="29">
-        <f>H6/C$6</f>
-        <v>0.13592233009708737</v>
-      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="33"/>
-      <c r="AB7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="29">
-        <f>H7/C$7</f>
-        <v>0.14423076923076922</v>
-      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="33"/>
-      <c r="AF7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG7" s="29">
-        <f>H8/C$8</f>
-        <v>0.12621359223300971</v>
-      </c>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="29"/>
       <c r="AH7" s="8"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
@@ -5940,48 +4896,23 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="33"/>
-      <c r="P8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="30">
-        <f>I4/C4</f>
-        <v>0.31914893617021278</v>
-      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="8"/>
       <c r="S8" s="33"/>
-      <c r="T8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="30">
-        <f>I5/C$5</f>
-        <v>0.15929203539823009</v>
-      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="29"/>
       <c r="W8" s="33"/>
-      <c r="X8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" s="29">
-        <f>I6/C$6</f>
-        <v>0.24271844660194175</v>
-      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="33"/>
-      <c r="AB8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC8" s="29">
-        <f>I7/C$7</f>
-        <v>0.30769230769230771</v>
-      </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="33"/>
-      <c r="AF8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG8" s="29">
-        <f>I8/C$8</f>
-        <v>0.33980582524271846</v>
-      </c>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="29"/>
       <c r="AH8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
@@ -6033,219 +4964,104 @@
         <v>0</v>
       </c>
       <c r="O9" s="33"/>
-      <c r="P9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="30">
-        <f>J4/C4</f>
-        <v>0.1276595744680851</v>
-      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="29"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="30">
-        <f>J5/C$5</f>
-        <v>1.7699115044247787E-2</v>
-      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="29"/>
       <c r="W9" s="33"/>
-      <c r="X9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y9" s="29">
-        <f>J6/C$6</f>
-        <v>9.7087378640776698E-2</v>
-      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="29"/>
       <c r="AA9" s="33"/>
-      <c r="AB9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC9" s="29">
-        <f>J7/C$7</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="29"/>
       <c r="AE9" s="33"/>
-      <c r="AF9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="29">
-        <f>J8/C$8</f>
-        <v>9.7087378640776691E-3</v>
-      </c>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="29"/>
     </row>
     <row r="10" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O10" s="33"/>
-      <c r="P10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="30">
-        <f>K4/C4</f>
-        <v>7.0921985815602835E-3</v>
-      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="29"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="30">
-        <f>K5/C$5</f>
-        <v>0.24778761061946902</v>
-      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="29"/>
       <c r="W10" s="33"/>
-      <c r="X10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" s="29">
-        <f>K6/C$6</f>
-        <v>5.8252427184466021E-2</v>
-      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="29"/>
       <c r="AA10" s="33"/>
-      <c r="AB10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC10" s="29">
-        <f>K7/C$7</f>
-        <v>5.7692307692307696E-2</v>
-      </c>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="29"/>
       <c r="AE10" s="33"/>
-      <c r="AF10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG10" s="29">
-        <f>K8/C$8</f>
-        <v>9.7087378640776698E-2</v>
-      </c>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="29"/>
     </row>
     <row r="11" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O11" s="33"/>
-      <c r="P11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="30">
-        <f>L4/C4</f>
-        <v>0.10638297872340426</v>
-      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="29"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="30">
-        <f>L5/C$5</f>
-        <v>8.8495575221238937E-2</v>
-      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="29"/>
       <c r="W11" s="33"/>
-      <c r="X11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y11" s="29">
-        <f>L6/C$6</f>
-        <v>3.8834951456310676E-2</v>
-      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="29"/>
       <c r="AA11" s="33"/>
-      <c r="AB11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC11" s="29">
-        <f>L7/C$7</f>
-        <v>1.9230769230769232E-2</v>
-      </c>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="29"/>
       <c r="AE11" s="33"/>
-      <c r="AF11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG11" s="29">
-        <f>L8/C$8</f>
-        <v>9.7087378640776691E-3</v>
-      </c>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="29"/>
     </row>
     <row r="12" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O12" s="33"/>
-      <c r="P12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="30">
-        <f>M4/C4</f>
-        <v>0</v>
-      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="29"/>
       <c r="S12" s="33"/>
-      <c r="T12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" s="30">
-        <f>M5/C$5</f>
-        <v>0</v>
-      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="29"/>
       <c r="W12" s="33"/>
-      <c r="X12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="29">
-        <f>M6/C$6</f>
-        <v>0</v>
-      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="29"/>
       <c r="AA12" s="33"/>
-      <c r="AB12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC12" s="29">
-        <f>M7/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="29"/>
       <c r="AE12" s="33"/>
-      <c r="AF12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG12" s="29">
-        <f>M8/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="29"/>
     </row>
     <row r="13" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="29">
-        <f>SUM(Q3:Q12)</f>
-        <v>1</v>
-      </c>
+      <c r="Q13" s="29"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="29">
-        <f>SUM(U3:U12)</f>
-        <v>1</v>
-      </c>
+      <c r="U13" s="29"/>
       <c r="W13" s="23"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="29">
-        <f>SUM(Y3:Y12)</f>
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="Y13" s="29"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="29">
-        <f>SUM(AC3:AC12)</f>
-        <v>1</v>
-      </c>
+      <c r="AC13" s="29"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="23"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="29">
-        <f>SUM(AG3:AG12)</f>
-        <v>1</v>
-      </c>
+      <c r="AG13" s="29"/>
       <c r="AH13" s="23"/>
       <c r="AL13" s="23"/>
       <c r="AM13" s="23"/>
@@ -6415,31 +5231,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="8"/>
-      <c r="P16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="Q16" s="32"/>
-      <c r="T16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="U16" s="32"/>
-      <c r="X16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="Y16" s="32"/>
-      <c r="AB16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="AC16" s="32"/>
-      <c r="AF16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="AG16" s="32"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
       <c r="AH16" s="8"/>
-      <c r="AJ16" s="32">
-        <v>2017</v>
-      </c>
-      <c r="AK16" s="32"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
@@ -6484,44 +5288,32 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="P17" s="8"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="T17" s="8"/>
       <c r="U17" s="23"/>
       <c r="W17" s="23"/>
-      <c r="X17" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="X17" s="8"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
-      <c r="AB17" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="AB17" s="8"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
       <c r="AE17" s="23"/>
-      <c r="AF17" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="AF17" s="8"/>
       <c r="AG17" s="23"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="23"/>
-      <c r="AJ17" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="AJ17" s="8"/>
       <c r="AK17" s="23"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>78</v>
       </c>
@@ -6560,75 +5352,33 @@
         <v>0</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="30">
-        <f>D19/C$4</f>
-        <v>0</v>
-      </c>
+      <c r="O18" s="33"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="29"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" s="30">
-        <f>D20/C$5</f>
-        <v>8.8495575221238937E-3</v>
-      </c>
-      <c r="W18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="29">
-        <f>D21/C$6</f>
-        <v>6.7961165048543687E-2</v>
-      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="29"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="29"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="29">
-        <f>D22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="29"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG18" s="29">
-        <f>D23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="29"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK18" s="29">
-        <f>H23/G$8</f>
-        <v>0</v>
-      </c>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="29"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
@@ -6668,62 +5418,32 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="33"/>
-      <c r="P19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="30">
-        <f>E19/C$4</f>
-        <v>0</v>
-      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="29"/>
       <c r="R19" s="8"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="30">
-        <f>E20/C$5</f>
-        <v>0.10619469026548672</v>
-      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="29"/>
       <c r="W19" s="33"/>
-      <c r="X19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" s="29">
-        <f>E21/C$6</f>
-        <v>0.24271844660194175</v>
-      </c>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="29"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="33"/>
-      <c r="AB19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC19" s="29">
-        <f>E22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="33"/>
-      <c r="AF19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" s="29">
-        <f>E23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="29"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="33"/>
-      <c r="AJ19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK19" s="29">
-        <f>I23/G$8</f>
-        <v>0</v>
-      </c>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="29"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
         <v>79</v>
       </c>
@@ -6763,62 +5483,32 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="33"/>
-      <c r="P20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="30">
-        <f>F19/C19</f>
-        <v>6.25E-2</v>
-      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="8"/>
       <c r="S20" s="33"/>
-      <c r="T20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="30">
-        <f>F20/C$5</f>
-        <v>9.7345132743362831E-2</v>
-      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="29"/>
       <c r="W20" s="33"/>
-      <c r="X20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="29">
-        <f>F21/C$6</f>
-        <v>0.25242718446601942</v>
-      </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="29"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="33"/>
-      <c r="AB20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC20" s="29">
-        <f>F22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="33"/>
-      <c r="AF20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG20" s="29">
-        <f>F23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="29"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="33"/>
-      <c r="AJ20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK20" s="29">
-        <f>J23/G$8</f>
-        <v>0</v>
-      </c>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="29"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <f>SUM(C15:C20)</f>
         <v>193</v>
@@ -6864,330 +5554,147 @@
         <v>2</v>
       </c>
       <c r="O21" s="33"/>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="30">
-        <f>G19/C$4</f>
-        <v>3.5460992907801421E-2</v>
-      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="8"/>
       <c r="S21" s="33"/>
-      <c r="T21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21" s="30">
-        <f>G20/C$5</f>
-        <v>3.5398230088495575E-2</v>
-      </c>
-      <c r="V21" t="s">
-        <v>103</v>
-      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="29"/>
       <c r="W21" s="33"/>
-      <c r="X21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="29">
-        <f>G21/C$6</f>
-        <v>0.1941747572815534</v>
-      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="29"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="33"/>
-      <c r="AB21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC21" s="29">
-        <f>G22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="29"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="33"/>
-      <c r="AF21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG21" s="29">
-        <f>G23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="29"/>
       <c r="AI21" s="33"/>
-      <c r="AJ21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK21" s="29">
-        <f>K23/G$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="29"/>
+    </row>
+    <row r="22" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O22" s="33"/>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="30">
-        <f>H19/C19</f>
-        <v>0.3125</v>
-      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="8"/>
       <c r="S22" s="33"/>
-      <c r="T22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="30">
-        <f>H20/C$5</f>
-        <v>3.5398230088495575E-2</v>
-      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="29"/>
       <c r="W22" s="33"/>
-      <c r="X22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y22" s="29">
-        <f>H21/C$6</f>
-        <v>0.44660194174757284</v>
-      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="29"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="33"/>
-      <c r="AB22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC22" s="29">
-        <f>H22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="29"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="33"/>
-      <c r="AF22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" s="29">
-        <f>H23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="29"/>
       <c r="AI22" s="33"/>
-      <c r="AJ22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK22" s="29">
-        <f>L23/G$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="29"/>
+    </row>
+    <row r="23" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O23" s="33"/>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="30">
-        <f>I19/C19</f>
-        <v>0.3125</v>
-      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="8"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U23" s="30">
-        <f>I20/C$5</f>
-        <v>0.12389380530973451</v>
-      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="29"/>
       <c r="W23" s="33"/>
-      <c r="X23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y23" s="29">
-        <f>I21/C$6</f>
-        <v>0.56310679611650483</v>
-      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="29"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="33"/>
-      <c r="AB23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC23" s="29">
-        <f>I22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="29"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="33"/>
-      <c r="AF23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG23" s="29">
-        <f>I23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="29"/>
       <c r="AI23" s="33"/>
-      <c r="AJ23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK23" s="29">
-        <f>M23/G$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="29"/>
+    </row>
+    <row r="24" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O24" s="33"/>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="30">
-        <f>J19/C19</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="29"/>
       <c r="S24" s="33"/>
-      <c r="T24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U24" s="30">
-        <f>J20/C$5</f>
-        <v>1.7699115044247787E-2</v>
-      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="29"/>
       <c r="W24" s="33"/>
-      <c r="X24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y24" s="29">
-        <f>J21/C$6</f>
-        <v>1.9417475728155338E-2</v>
-      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="29"/>
       <c r="AA24" s="33"/>
-      <c r="AB24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC24" s="29">
-        <f>J22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="29"/>
       <c r="AE24" s="33"/>
-      <c r="AF24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG24" s="29">
-        <f>J23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="29"/>
       <c r="AI24" s="33"/>
-      <c r="AJ24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK24" s="29">
-        <f>N23/G$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="29"/>
+    </row>
+    <row r="25" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O25" s="33"/>
-      <c r="P25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="30">
-        <f>K19/C19</f>
-        <v>0</v>
-      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="29"/>
       <c r="S25" s="33"/>
-      <c r="T25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U25" s="30">
-        <f>K20/C$5</f>
-        <v>0</v>
-      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="29"/>
       <c r="W25" s="33"/>
-      <c r="X25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y25" s="29">
-        <f>K21/C$6</f>
-        <v>1.9417475728155338E-2</v>
-      </c>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="29"/>
       <c r="AA25" s="33"/>
-      <c r="AB25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC25" s="29">
-        <f>K22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="29"/>
       <c r="AE25" s="33"/>
-      <c r="AF25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG25" s="29">
-        <f>K23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="29"/>
       <c r="AI25" s="33"/>
-      <c r="AJ25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK25" s="29">
-        <f>O23/G$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="34" t="s">
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="29"/>
+    </row>
+    <row r="26" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
       <c r="N26" s="23"/>
       <c r="O26" s="33"/>
-      <c r="P26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q26" s="30">
-        <f>L19/C19</f>
-        <v>0</v>
-      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="29"/>
       <c r="S26" s="33"/>
-      <c r="T26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U26" s="30">
-        <f>L20/C$5</f>
-        <v>0</v>
-      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="29"/>
       <c r="W26" s="33"/>
-      <c r="X26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y26" s="29">
-        <f>L21/C$6</f>
-        <v>4.8543689320388349E-2</v>
-      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="29"/>
       <c r="AA26" s="33"/>
-      <c r="AB26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC26" s="29">
-        <f>L22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="29"/>
       <c r="AE26" s="33"/>
-      <c r="AF26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG26" s="29">
-        <f>L23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="29"/>
       <c r="AI26" s="33"/>
-      <c r="AJ26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK26" s="29" t="e">
-        <f>P23/G$8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="29"/>
+    </row>
+    <row r="27" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
@@ -7226,53 +5733,23 @@
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="33"/>
-      <c r="P27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" s="30">
-        <f>M19/C19</f>
-        <v>0</v>
-      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="29"/>
       <c r="S27" s="33"/>
-      <c r="T27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="30">
-        <f>M20/C$5</f>
-        <v>0</v>
-      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="29"/>
       <c r="W27" s="33"/>
-      <c r="X27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y27" s="29">
-        <f>M21/C$6</f>
-        <v>1.9417475728155338E-2</v>
-      </c>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="29"/>
       <c r="AA27" s="33"/>
-      <c r="AB27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC27" s="29">
-        <f>M22/C$7</f>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="29"/>
       <c r="AE27" s="33"/>
-      <c r="AF27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG27" s="29">
-        <f>M23/C$8</f>
-        <v>0</v>
-      </c>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="29"/>
       <c r="AI27" s="33"/>
-      <c r="AJ27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK27" s="29">
-        <f>Q23/G$8</f>
-        <v>6.25E-2</v>
-      </c>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="29"/>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
@@ -7315,43 +5792,25 @@
       <c r="N28" s="8"/>
       <c r="O28" s="23"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="29">
-        <f>SUM(Q18:Q27)</f>
-        <v>0.72296099290780136</v>
-      </c>
+      <c r="Q28" s="29"/>
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="29">
-        <f>SUM(U18:U27)</f>
-        <v>0.4247787610619469</v>
-      </c>
+      <c r="U28" s="29"/>
       <c r="W28" s="23"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="29">
-        <f>SUM(Y18:Y27)</f>
-        <v>1.8737864077669901</v>
-      </c>
+      <c r="Y28" s="29"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="29">
-        <f>SUM(AC18:AC27)</f>
-        <v>0</v>
-      </c>
+      <c r="AC28" s="29"/>
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="29">
-        <f>SUM(AG18:AG27)</f>
-        <v>0</v>
-      </c>
+      <c r="AG28" s="29"/>
       <c r="AI28" s="23"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="29" t="e">
-        <f>SUM(AK18:AK27)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="AK28" s="29"/>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
@@ -7583,18 +6042,18 @@
       <c r="C34" s="8"/>
     </row>
     <row r="37" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -7963,18 +6422,18 @@
       </c>
     </row>
     <row r="50" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
@@ -8298,18 +6757,18 @@
       </c>
     </row>
     <row r="61" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
@@ -8678,18 +7137,18 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
@@ -9016,18 +7475,18 @@
       <c r="C82" s="8"/>
     </row>
     <row r="85" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
@@ -9396,18 +7855,18 @@
       </c>
     </row>
     <row r="97" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-      <c r="M97" s="34"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
@@ -9731,18 +8190,18 @@
       </c>
     </row>
     <row r="108" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D108" s="34" t="s">
+      <c r="D108" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
       <c r="P108" s="23"/>
@@ -10111,18 +8570,18 @@
       </c>
     </row>
     <row r="121" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="37"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="40"/>
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
       <c r="P121" s="23"/>
@@ -10403,18 +8862,18 @@
       </c>
     </row>
     <row r="132" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="35" t="s">
+      <c r="D132" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="37"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="40"/>
       <c r="N132" s="23"/>
       <c r="O132" s="23"/>
       <c r="P132" s="23"/>
@@ -10769,18 +9228,18 @@
       </c>
     </row>
     <row r="145" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
-      <c r="L145" s="34"/>
-      <c r="M145" s="34"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="41"/>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
       <c r="P145" s="23"/>
@@ -11104,18 +9563,18 @@
       </c>
     </row>
     <row r="156" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
-      <c r="L156" s="34"/>
-      <c r="M156" s="34"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
+      <c r="L156" s="41"/>
+      <c r="M156" s="41"/>
       <c r="N156" s="23"/>
       <c r="O156" s="23"/>
       <c r="P156" s="23"/>
@@ -11484,18 +9943,18 @@
       </c>
     </row>
     <row r="168" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="34"/>
-      <c r="L168" s="34"/>
-      <c r="M168" s="34"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="41"/>
+      <c r="L168" s="41"/>
+      <c r="M168" s="41"/>
       <c r="N168" s="23"/>
       <c r="O168" s="23"/>
       <c r="P168" s="23"/>
@@ -11807,18 +10266,18 @@
       </c>
     </row>
     <row r="179" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E179" s="34"/>
-      <c r="F179" s="34"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="34"/>
-      <c r="L179" s="34"/>
-      <c r="M179" s="34"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
+      <c r="G179" s="41"/>
+      <c r="H179" s="41"/>
+      <c r="I179" s="41"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="41"/>
+      <c r="L179" s="41"/>
+      <c r="M179" s="41"/>
       <c r="N179" s="23"/>
       <c r="O179" s="23"/>
       <c r="P179" s="23"/>
@@ -12173,18 +10632,18 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D188" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E188" s="39"/>
-      <c r="F188" s="39"/>
-      <c r="G188" s="39"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="39"/>
-      <c r="J188" s="39"/>
-      <c r="K188" s="39"/>
-      <c r="L188" s="39"/>
-      <c r="M188" s="39"/>
+      <c r="D188" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+      <c r="L188" s="36"/>
+      <c r="M188" s="36"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D189" s="28" t="s">
@@ -12217,12 +10676,15 @@
       <c r="M189" s="28" t="s">
         <v>69</v>
       </c>
+      <c r="N189" s="28" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>115</v>
-      </c>
-      <c r="B190">
+      <c r="A190" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" s="28">
         <f>(C187+C175+C164+C152+C140+C128+C116+C104+C93+C81+C69+C57+C45+C33+C21+C9)</f>
         <v>3853</v>
       </c>
@@ -12266,12 +10728,13 @@
         <f t="shared" si="31"/>
         <v>36</v>
       </c>
+      <c r="N190" s="28"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191">
+      <c r="A191" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B191" s="28">
         <f>B190/16</f>
         <v>240.8125</v>
       </c>
@@ -12315,166 +10778,181 @@
         <f>M190/B$190</f>
         <v>9.3433688035297179E-3</v>
       </c>
+      <c r="N191">
+        <v>9.214E-2</v>
+      </c>
+      <c r="O191" s="31">
+        <f>SUM(D191:N191)</f>
+        <v>1.0000040020763041</v>
+      </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="2">
         <f>SUM(C170,C147,C123,C99,C76,C52,C28,C4)</f>
         <v>496</v>
       </c>
-      <c r="D195" s="29">
+      <c r="D195" s="30">
         <f>C195/B190</f>
         <v>0.12873085907085388</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="2">
         <f>SUM(C171,C148,C124,C100,C77,C53,C29,C5)</f>
         <v>718</v>
       </c>
-      <c r="D196" s="29">
+      <c r="D196" s="30">
         <f>C196/B190</f>
         <v>0.18634830002595379</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197" s="2">
         <f t="shared" ref="C197:C199" si="32">SUM(C172,C149,C125,C101,C78,C54,C30,C6)</f>
         <v>509</v>
       </c>
-      <c r="D197" s="29">
+      <c r="D197" s="30">
         <f>C197/B190</f>
         <v>0.13210485336101738</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="2">
         <f t="shared" si="32"/>
         <v>496</v>
       </c>
-      <c r="D198" s="29">
+      <c r="D198" s="30">
         <f>C198/B190</f>
         <v>0.12873085907085388</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="2">
         <f t="shared" si="32"/>
         <v>490</v>
       </c>
-      <c r="D199" s="29">
+      <c r="D199" s="30">
         <f>C199/B190</f>
         <v>0.12717363093693226</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="2">
         <f>SUM(C181,C158,C134,C110,C87,C63,C39,C15)</f>
         <v>406</v>
       </c>
-      <c r="D200" s="29">
+      <c r="D200" s="30">
         <f>C200/B190</f>
         <v>0.10537243706202959</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="2">
         <f>SUM(C182,C159,C135,C111,C88,C64,C40,C16)</f>
         <v>219</v>
       </c>
-      <c r="D201" s="29">
+      <c r="D201" s="30">
         <f>C201/B190</f>
         <v>5.6838826888139113E-2</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C202" s="8">
-        <f t="shared" ref="C201:C205" si="33">SUM(C183,C160,C136,C112,C89,C65,C41,C17)</f>
+      <c r="C202" s="2">
+        <f t="shared" ref="C202:C205" si="33">SUM(C183,C160,C136,C112,C89,C65,C41,C17)</f>
         <v>140</v>
       </c>
-      <c r="D202" s="29">
+      <c r="D202" s="30">
         <f>C202/B190</f>
         <v>3.6335323124837789E-2</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="D203" s="29">
+      <c r="D203" s="30">
         <f>C203/B190</f>
         <v>8.8242927588891764E-3</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="2">
         <f t="shared" si="33"/>
         <v>123</v>
       </c>
-      <c r="D204" s="29">
+      <c r="D204" s="30">
         <f>C204/B190</f>
         <v>3.1923176745393203E-2</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="2">
         <f t="shared" si="33"/>
         <v>222</v>
       </c>
-      <c r="D205" s="29">
+      <c r="D205" s="30">
         <f>C205/B190</f>
         <v>5.7617440955099922E-2</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D206" s="40">
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="29">
         <f>SUM(D195:D205)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="28">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D50:M50"/>
     <mergeCell ref="D188:M188"/>
     <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AI18:AI27"/>
-    <mergeCell ref="O18:O27"/>
-    <mergeCell ref="S18:S27"/>
-    <mergeCell ref="W18:W27"/>
-    <mergeCell ref="AA18:AA27"/>
-    <mergeCell ref="AE18:AE27"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="X16:Y16"/>
@@ -12489,23 +10967,6 @@
     <mergeCell ref="D85:M85"/>
     <mergeCell ref="D97:M97"/>
     <mergeCell ref="D108:M108"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AA3:AA12"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AE3:AE12"/>
-    <mergeCell ref="O3:O12"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="S3:S12"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="W3:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12574,7 +11035,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="38">
+      <c r="A3" s="42">
         <v>2026</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -12627,7 +11088,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -12645,7 +11106,7 @@
       <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -12663,7 +11124,7 @@
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
@@ -12681,7 +11142,7 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+      <c r="A7" s="42">
         <v>2027</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -12701,7 +11162,7 @@
       <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -12719,7 +11180,7 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -12737,7 +11198,7 @@
       <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
@@ -12755,7 +11216,7 @@
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="A11" s="42">
         <v>2028</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -12775,7 +11236,7 @@
       <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -12793,7 +11254,7 @@
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -12811,7 +11272,7 @@
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
@@ -12829,7 +11290,7 @@
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+      <c r="A15" s="42">
         <v>2029</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -12849,7 +11310,7 @@
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -12867,7 +11328,7 @@
       <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -12885,7 +11346,7 @@
       <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
@@ -12903,7 +11364,7 @@
       <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
+      <c r="A19" s="42">
         <v>2030</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -12923,7 +11384,7 @@
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -12941,7 +11402,7 @@
       <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -12959,7 +11420,7 @@
       <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
@@ -12977,7 +11438,7 @@
       <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+      <c r="A23" s="42">
         <v>2031</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -12997,7 +11458,7 @@
       <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -13015,7 +11476,7 @@
       <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -13033,7 +11494,7 @@
       <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
@@ -13051,7 +11512,7 @@
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="38">
+      <c r="A27" s="42">
         <v>2032</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -13071,7 +11532,7 @@
       <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -13089,7 +11550,7 @@
       <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -13107,7 +11568,7 @@
       <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
@@ -13125,7 +11586,7 @@
       <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="38">
+      <c r="A31" s="42">
         <v>2033</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -13145,7 +11606,7 @@
       <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
@@ -13163,7 +11624,7 @@
       <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
@@ -13181,7 +11642,7 @@
       <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
@@ -13199,7 +11660,7 @@
       <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="38">
+      <c r="A35" s="42">
         <v>2034</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -13219,7 +11680,7 @@
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
@@ -13237,7 +11698,7 @@
       <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
@@ -13255,7 +11716,7 @@
       <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
@@ -13273,7 +11734,7 @@
       <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="38">
+      <c r="A39" s="42">
         <v>2035</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -13293,7 +11754,7 @@
       <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
@@ -13311,7 +11772,7 @@
       <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="38"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
@@ -13329,7 +11790,7 @@
       <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
@@ -13347,7 +11808,7 @@
       <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="38">
+      <c r="A43" s="42">
         <v>2036</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -13367,7 +11828,7 @@
       <c r="N43" s="28"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
@@ -13385,7 +11846,7 @@
       <c r="N44" s="28"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
@@ -13403,7 +11864,7 @@
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -13422,17 +11883,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simulacion CNDH.xlsx
+++ b/Simulacion CNDH.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Desktop\Trabajos Semestre\Tecnologico\5to semestre\Simulación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c0a831041223723/Documents/simugit/simulacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB693E42-943E-4FED-B492-157CEE96A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CB693E42-943E-4FED-B492-157CEE96A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C527D30B-D4BF-4905-8D08-653A9B85F79D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4C7E1030-DE35-4646-9A5E-763E8DC020F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C7E1030-DE35-4646-9A5E-763E8DC020F9}"/>
   </bookViews>
   <sheets>
     <sheet name="QuejasXTrimestre" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -444,12 +433,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="22">
@@ -745,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,11 +850,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,10 +874,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,47 +1222,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC0EAC3-825E-430C-98DD-771EE3482698}">
   <dimension ref="B2:AI47"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N24" sqref="N18:N24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1445,47 +1458,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="43">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="43">
+        <v>23</v>
+      </c>
+      <c r="E4" s="43">
+        <v>23</v>
+      </c>
+      <c r="F4" s="43">
+        <v>7</v>
+      </c>
+      <c r="G4" s="43">
+        <v>8</v>
+      </c>
+      <c r="H4" s="43">
+        <v>13</v>
+      </c>
+      <c r="I4" s="44">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="J4" s="43">
+        <v>16</v>
+      </c>
+      <c r="K4" s="43">
+        <v>18</v>
+      </c>
+      <c r="L4" s="43">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="M4" s="43">
         <v>12</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="43">
         <v>15</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="43">
         <v>19</v>
       </c>
       <c r="P4" s="2">
@@ -1543,45 +1556,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="45">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="45">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2">
-        <v>15</v>
+      <c r="E5" s="45">
+        <v>22</v>
+      </c>
+      <c r="F5" s="45">
+        <v>22</v>
+      </c>
+      <c r="G5" s="45">
+        <v>22</v>
+      </c>
+      <c r="H5" s="45">
+        <v>22</v>
+      </c>
+      <c r="I5" s="45">
+        <v>22</v>
+      </c>
+      <c r="J5" s="45">
+        <v>22</v>
+      </c>
+      <c r="K5" s="45">
+        <v>22</v>
+      </c>
+      <c r="L5" s="45">
+        <v>22</v>
+      </c>
+      <c r="M5" s="45">
+        <v>22</v>
+      </c>
+      <c r="N5" s="45">
+        <v>22</v>
       </c>
       <c r="O5" s="2">
         <v>19</v>
@@ -1641,11 +1654,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="46">
         <v>22</v>
       </c>
       <c r="D6" s="2">
@@ -1739,7 +1752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
@@ -2033,7 +2046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7">
         <f>SUM(C3:C13)</f>
@@ -2431,7 +2444,7 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" ref="D14:AG14" si="0">SUM(D3:D13)</f>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
@@ -2439,39 +2452,39 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="0"/>
@@ -2551,14 +2564,14 @@
       </c>
       <c r="AH14" s="17">
         <f>SUM(C14:AG14)</f>
-        <v>5114</v>
+        <v>5185</v>
       </c>
       <c r="AI14" s="17">
         <f>AH14/31</f>
-        <v>164.96774193548387</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.35">
+        <v>167.25806451612902</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2589,7 +2602,7 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>105</v>
       </c>
@@ -2602,61 +2615,61 @@
       <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36" t="s">
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36" t="s">
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36" t="s">
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36" t="s">
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="34">
         <f>AVERAGE(D14,H14,L14,P14,T14,X14,AB14)</f>
-        <v>157.14285714285714</v>
+        <v>159.57142857142858</v>
       </c>
       <c r="E17" s="34">
         <f>AVERAGE(E14,I14,M14,Q14,U14,Y14,AC14)</f>
-        <v>163.71428571428572</v>
+        <v>165.57142857142858</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" ref="F17:G17" si="1">AVERAGE(F14,J14,N14,R14,V14,Z14,AD14)</f>
-        <v>158.14285714285714</v>
+        <v>162.42857142857142</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>166.57142857142858</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="2" t="s">
@@ -2733,7 +2746,7 @@
       </c>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2741,13 +2754,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="44">
+      <c r="I18" s="2">
         <v>14</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="2">
         <v>14</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="2">
         <v>19</v>
       </c>
       <c r="L18" s="2">
@@ -2759,12 +2772,24 @@
       <c r="N18" s="2">
         <v>23</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="O18" s="2">
+        <v>7</v>
+      </c>
+      <c r="P18" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>22</v>
+      </c>
+      <c r="R18" s="2">
+        <v>22</v>
+      </c>
+      <c r="S18" s="2">
+        <v>22</v>
+      </c>
+      <c r="T18" s="2">
+        <v>22</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -2779,7 +2804,7 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
@@ -2807,12 +2832,24 @@
       <c r="N19" s="2">
         <v>17</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="O19" s="2">
+        <v>16</v>
+      </c>
+      <c r="P19" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>22</v>
+      </c>
+      <c r="R19" s="2">
+        <v>22</v>
+      </c>
+      <c r="S19" s="2">
+        <v>22</v>
+      </c>
+      <c r="T19" s="2">
+        <v>22</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -2827,12 +2864,12 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="8"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
         <f>AVERAGE(D14:AE14)</f>
-        <v>161</v>
+        <v>163.53571428571428</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2856,12 +2893,24 @@
       <c r="N20" s="2">
         <v>12</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="O20" s="2">
+        <v>15</v>
+      </c>
+      <c r="P20" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>22</v>
+      </c>
+      <c r="R20" s="2">
+        <v>22</v>
+      </c>
+      <c r="S20" s="2">
+        <v>22</v>
+      </c>
+      <c r="T20" s="2">
+        <v>19</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -2876,7 +2925,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2901,12 +2950,24 @@
       <c r="N21" s="2">
         <v>19</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="O21" s="2">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>18</v>
+      </c>
+      <c r="R21" s="2">
+        <v>21</v>
+      </c>
+      <c r="S21" s="2">
+        <v>19</v>
+      </c>
+      <c r="T21" s="2">
+        <v>39</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -2920,7 +2981,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2945,12 +3006,24 @@
       <c r="N22" s="2">
         <v>19</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="O22" s="2">
+        <v>21</v>
+      </c>
+      <c r="P22" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>29</v>
+      </c>
+      <c r="R22" s="2">
+        <v>40</v>
+      </c>
+      <c r="S22" s="2">
+        <v>28</v>
+      </c>
+      <c r="T22" s="2">
+        <v>26</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -2964,7 +3037,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2989,12 +3062,24 @@
       <c r="N23" s="2">
         <v>15</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="O23" s="2">
+        <v>27</v>
+      </c>
+      <c r="P23" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>25</v>
+      </c>
+      <c r="R23" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" s="2">
+        <v>32</v>
+      </c>
+      <c r="T23" s="2">
+        <v>29</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -3008,7 +3093,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3033,12 +3118,24 @@
       <c r="N24" s="2">
         <v>28</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="O24" s="2">
+        <v>24</v>
+      </c>
+      <c r="P24" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>27</v>
+      </c>
+      <c r="R24" s="2">
+        <v>40</v>
+      </c>
+      <c r="S24" s="2">
+        <v>27</v>
+      </c>
+      <c r="T24" s="2">
+        <v>38</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -3052,7 +3149,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3060,7 +3157,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3068,7 +3165,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3076,7 +3173,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3084,7 +3181,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3092,7 +3189,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3100,7 +3197,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3108,14 +3205,14 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3123,7 +3220,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3131,7 +3228,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3139,7 +3236,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3147,21 +3244,21 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3169,7 +3266,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3177,7 +3274,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3185,7 +3282,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -3193,7 +3290,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3201,7 +3298,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3209,7 +3306,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3217,7 +3314,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3225,7 +3322,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3252,22 +3349,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBC14FD-2859-4A01-8B2C-0115F92D96E6}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
@@ -3308,8 +3405,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>2026</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3345,8 +3442,8 @@
         <v>91.082597284059801</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
       <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
@@ -3375,8 +3472,8 @@
         <v>26.50548288894764</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -3402,8 +3499,8 @@
         <v>16.716373269445178</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
@@ -3429,8 +3526,8 @@
         <v>16.206548283048562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
         <v>2027</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3457,8 +3554,8 @@
       <c r="M7" s="18"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
@@ -3483,8 +3580,8 @@
       <c r="M8" s="18"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
       <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
@@ -3506,8 +3603,8 @@
       <c r="M9" s="18"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
@@ -3529,8 +3626,8 @@
       <c r="M10" s="18"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
         <v>2028</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3557,8 +3654,8 @@
       <c r="M11" s="18"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
@@ -3583,8 +3680,8 @@
       <c r="M12" s="18"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
@@ -3606,8 +3703,8 @@
       <c r="M13" s="18"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
@@ -3629,8 +3726,8 @@
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
         <v>2029</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3657,8 +3754,8 @@
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -3683,8 +3780,8 @@
       <c r="M16" s="18"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -3706,8 +3803,8 @@
       <c r="M17" s="18"/>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3729,8 +3826,8 @@
       <c r="M18" s="18"/>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
         <v>2030</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3757,8 +3854,8 @@
       <c r="M19" s="18"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
@@ -3783,8 +3880,8 @@
       <c r="M20" s="18"/>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
       <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
@@ -3806,8 +3903,8 @@
       <c r="M21" s="18"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
@@ -3829,8 +3926,8 @@
       <c r="M22" s="18"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>2031</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3857,8 +3954,8 @@
       <c r="M23" s="18"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
@@ -3883,8 +3980,8 @@
       <c r="M24" s="18"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3906,8 +4003,8 @@
       <c r="M25" s="18"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
@@ -3929,8 +4026,8 @@
       <c r="M26" s="18"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
         <v>2032</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3957,8 +4054,8 @@
       <c r="M27" s="18"/>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
@@ -3983,8 +4080,8 @@
       <c r="M28" s="18"/>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
@@ -4006,8 +4103,8 @@
       <c r="M29" s="18"/>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -4029,8 +4126,8 @@
       <c r="M30" s="18"/>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
         <v>2033</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -4057,8 +4154,8 @@
       <c r="M31" s="18"/>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
       <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
@@ -4083,8 +4180,8 @@
       <c r="M32" s="18"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
       <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
@@ -4106,8 +4203,8 @@
       <c r="M33" s="18"/>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
       <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
@@ -4129,8 +4226,8 @@
       <c r="M34" s="18"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
         <v>2034</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4157,8 +4254,8 @@
       <c r="M35" s="18"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
       <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
@@ -4183,8 +4280,8 @@
       <c r="M36" s="18"/>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
@@ -4206,8 +4303,8 @@
       <c r="M37" s="18"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
@@ -4229,8 +4326,8 @@
       <c r="M38" s="18"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
         <v>2035</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4257,8 +4354,8 @@
       <c r="M39" s="18"/>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
@@ -4283,8 +4380,8 @@
       <c r="M40" s="18"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
       </c>
@@ -4306,8 +4403,8 @@
       <c r="M41" s="18"/>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -4329,8 +4426,8 @@
       <c r="M42" s="18"/>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
         <v>2036</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4357,8 +4454,8 @@
       <c r="M43" s="18"/>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
       <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
@@ -4383,8 +4480,8 @@
       <c r="M44" s="18"/>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
@@ -4406,8 +4503,8 @@
       <c r="M45" s="18"/>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
       <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
@@ -4433,25 +4530,25 @@
         <v>769.96790215207614</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C47" s="43"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C48" s="43"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4465,40 +4562,40 @@
       <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.7265625" customWidth="1"/>
-    <col min="24" max="24" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.7109375" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
       <c r="T1" s="37"/>
@@ -4510,7 +4607,7 @@
       <c r="AF1" s="37"/>
       <c r="AG1" s="37"/>
     </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
       <c r="D2" s="41" t="s">
         <v>85</v>
       </c>
@@ -4547,7 +4644,7 @@
       <c r="AM2" s="23"/>
       <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
@@ -4608,7 +4705,7 @@
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
     </row>
-    <row r="4" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>99</v>
       </c>
@@ -4670,7 +4767,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
@@ -4732,7 +4829,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
@@ -4794,7 +4891,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>75</v>
       </c>
@@ -4856,7 +4953,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
@@ -4918,7 +5015,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <f>SUM(C4:C8)</f>
         <v>564</v>
@@ -4979,7 +5076,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="29"/>
     </row>
-    <row r="10" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O10" s="33"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="29"/>
@@ -4996,7 +5093,7 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="29"/>
     </row>
-    <row r="11" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O11" s="33"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="29"/>
@@ -5013,7 +5110,7 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="29"/>
     </row>
-    <row r="12" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O12" s="33"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="29"/>
@@ -5030,7 +5127,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="29"/>
     </row>
-    <row r="13" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="41" t="s">
         <v>86</v>
       </c>
@@ -5067,7 +5164,7 @@
       <c r="AM13" s="23"/>
       <c r="AN13" s="23"/>
     </row>
-    <row r="14" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>60</v>
       </c>
@@ -5129,7 +5226,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
@@ -5192,7 +5289,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>58</v>
       </c>
@@ -5248,7 +5345,7 @@
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
@@ -5313,7 +5410,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
     </row>
-    <row r="18" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>78</v>
       </c>
@@ -5378,7 +5475,7 @@
       <c r="AM18" s="8"/>
       <c r="AN18" s="8"/>
     </row>
-    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
@@ -5443,7 +5540,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>79</v>
       </c>
@@ -5508,7 +5605,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
         <f>SUM(C15:C20)</f>
         <v>193</v>
@@ -5575,7 +5672,7 @@
       <c r="AJ21" s="8"/>
       <c r="AK21" s="29"/>
     </row>
-    <row r="22" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O22" s="33"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="29"/>
@@ -5598,7 +5695,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="29"/>
     </row>
-    <row r="23" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O23" s="33"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="29"/>
@@ -5621,7 +5718,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="29"/>
     </row>
-    <row r="24" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O24" s="33"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="29"/>
@@ -5641,7 +5738,7 @@
       <c r="AJ24" s="8"/>
       <c r="AK24" s="29"/>
     </row>
-    <row r="25" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O25" s="33"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="29"/>
@@ -5661,7 +5758,7 @@
       <c r="AJ25" s="8"/>
       <c r="AK25" s="29"/>
     </row>
-    <row r="26" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="41" t="s">
         <v>87</v>
       </c>
@@ -5694,7 +5791,7 @@
       <c r="AJ26" s="8"/>
       <c r="AK26" s="29"/>
     </row>
-    <row r="27" spans="2:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
@@ -5751,7 +5848,7 @@
       <c r="AJ27" s="8"/>
       <c r="AK27" s="29"/>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
@@ -5812,7 +5909,7 @@
       <c r="AJ28" s="8"/>
       <c r="AK28" s="29"/>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -5857,7 +5954,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -5902,7 +5999,7 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
@@ -5947,7 +6044,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -5992,7 +6089,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f>SUM(C28:C32)</f>
         <v>229</v>
@@ -6038,10 +6135,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
     </row>
-    <row r="37" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="41" t="s">
         <v>88</v>
       </c>
@@ -6061,7 +6158,7 @@
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
         <v>60</v>
       </c>
@@ -6105,7 +6202,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>77</v>
       </c>
@@ -6150,7 +6247,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
@@ -6195,7 +6292,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>56</v>
       </c>
@@ -6240,7 +6337,7 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>78</v>
       </c>
@@ -6285,7 +6382,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>59</v>
       </c>
@@ -6330,7 +6427,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>79</v>
       </c>
@@ -6375,7 +6472,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C45" s="7">
         <f>SUM(C39:C44)</f>
         <v>159</v>
@@ -6421,7 +6518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="41" t="s">
         <v>89</v>
       </c>
@@ -6441,7 +6538,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>60</v>
       </c>
@@ -6485,7 +6582,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>99</v>
       </c>
@@ -6530,7 +6627,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>73</v>
       </c>
@@ -6575,7 +6672,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>74</v>
       </c>
@@ -6620,7 +6717,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>75</v>
       </c>
@@ -6665,7 +6762,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
     </row>
-    <row r="56" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="13" t="s">
         <v>76</v>
       </c>
@@ -6710,7 +6807,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <f>SUM(C52:C56)</f>
         <v>205</v>
@@ -6756,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="41" t="s">
         <v>90</v>
       </c>
@@ -6776,7 +6873,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="15" t="s">
         <v>60</v>
       </c>
@@ -6820,7 +6917,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
     </row>
-    <row r="63" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>77</v>
       </c>
@@ -6865,7 +6962,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
     </row>
-    <row r="64" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>58</v>
       </c>
@@ -6910,7 +7007,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
     </row>
-    <row r="65" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>56</v>
       </c>
@@ -6955,7 +7052,7 @@
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
     </row>
-    <row r="66" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>78</v>
       </c>
@@ -7000,7 +7097,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
     </row>
-    <row r="67" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -7045,7 +7142,7 @@
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
     </row>
-    <row r="68" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="13" t="s">
         <v>79</v>
       </c>
@@ -7090,7 +7187,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C69" s="7">
         <f>SUM(C63:C68)</f>
         <v>131</v>
@@ -7136,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="41" t="s">
         <v>91</v>
       </c>
@@ -7156,7 +7253,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>60</v>
       </c>
@@ -7200,7 +7297,7 @@
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>98</v>
       </c>
@@ -7245,7 +7342,7 @@
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>73</v>
       </c>
@@ -7290,7 +7387,7 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>74</v>
       </c>
@@ -7335,7 +7432,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>75</v>
       </c>
@@ -7380,7 +7477,7 @@
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
     </row>
-    <row r="80" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13" t="s">
         <v>76</v>
       </c>
@@ -7425,7 +7522,7 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <f>SUM(C76:C80)</f>
         <v>293</v>
@@ -7471,10 +7568,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
     </row>
-    <row r="85" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="41" t="s">
         <v>92</v>
       </c>
@@ -7494,7 +7591,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="15" t="s">
         <v>60</v>
       </c>
@@ -7538,7 +7635,7 @@
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
     </row>
-    <row r="87" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>77</v>
       </c>
@@ -7583,7 +7680,7 @@
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
     </row>
-    <row r="88" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>58</v>
       </c>
@@ -7628,7 +7725,7 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
     </row>
-    <row r="89" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>56</v>
       </c>
@@ -7673,7 +7770,7 @@
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
     </row>
-    <row r="90" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>78</v>
       </c>
@@ -7718,7 +7815,7 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
     </row>
-    <row r="91" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>59</v>
       </c>
@@ -7763,7 +7860,7 @@
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
     </row>
-    <row r="92" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="13" t="s">
         <v>79</v>
       </c>
@@ -7808,7 +7905,7 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C93" s="7">
         <f>SUM(C87:C92)</f>
         <v>109</v>
@@ -7854,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="41" t="s">
         <v>93</v>
       </c>
@@ -7874,7 +7971,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>60</v>
       </c>
@@ -7918,7 +8015,7 @@
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>98</v>
       </c>
@@ -7963,7 +8060,7 @@
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>73</v>
       </c>
@@ -8008,7 +8105,7 @@
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>74</v>
       </c>
@@ -8053,7 +8150,7 @@
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>75</v>
       </c>
@@ -8098,7 +8195,7 @@
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
     </row>
-    <row r="103" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="13" t="s">
         <v>76</v>
       </c>
@@ -8143,7 +8240,7 @@
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C104" s="2">
         <f>SUM(C99:C103)</f>
         <v>357</v>
@@ -8189,7 +8286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="41" t="s">
         <v>94</v>
       </c>
@@ -8209,7 +8306,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
         <v>60</v>
       </c>
@@ -8253,7 +8350,7 @@
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
     </row>
-    <row r="110" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>77</v>
       </c>
@@ -8298,7 +8395,7 @@
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
     </row>
-    <row r="111" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>58</v>
       </c>
@@ -8343,7 +8440,7 @@
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
     </row>
-    <row r="112" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>56</v>
       </c>
@@ -8388,7 +8485,7 @@
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
     </row>
-    <row r="113" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>78</v>
       </c>
@@ -8433,7 +8530,7 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
     </row>
-    <row r="114" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>59</v>
       </c>
@@ -8478,7 +8575,7 @@
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
     </row>
-    <row r="115" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="13" t="s">
         <v>79</v>
       </c>
@@ -8523,7 +8620,7 @@
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C116" s="7">
         <f>SUM(C110:C115)</f>
         <v>173</v>
@@ -8569,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="38" t="s">
         <v>82</v>
       </c>
@@ -8589,7 +8686,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>60</v>
       </c>
@@ -8631,7 +8728,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
         <v>98</v>
       </c>
@@ -8674,7 +8771,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>73</v>
       </c>
@@ -8717,7 +8814,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>74</v>
       </c>
@@ -8760,7 +8857,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>75</v>
       </c>
@@ -8803,7 +8900,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="13" t="s">
         <v>76</v>
       </c>
@@ -8846,7 +8943,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C128" s="2">
         <f>SUM(C123:C127)</f>
         <v>386</v>
@@ -8856,12 +8953,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="38" t="s">
         <v>83</v>
       </c>
@@ -8881,7 +8978,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="15" t="s">
         <v>60</v>
       </c>
@@ -8923,7 +9020,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
         <v>77</v>
       </c>
@@ -8966,7 +9063,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
         <v>58</v>
       </c>
@@ -9009,7 +9106,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>56</v>
       </c>
@@ -9052,7 +9149,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>78</v>
       </c>
@@ -9095,7 +9192,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>59</v>
       </c>
@@ -9138,7 +9235,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="13" t="s">
         <v>79</v>
       </c>
@@ -9181,7 +9278,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C140" s="7">
         <f>SUM(C134:C139)</f>
         <v>152</v>
@@ -9227,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="41" t="s">
         <v>95</v>
       </c>
@@ -9247,7 +9344,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>60</v>
       </c>
@@ -9291,7 +9388,7 @@
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
     </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
         <v>98</v>
       </c>
@@ -9336,7 +9433,7 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
     </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
         <v>73</v>
       </c>
@@ -9381,7 +9478,7 @@
       <c r="R148" s="8"/>
       <c r="S148" s="8"/>
     </row>
-    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
         <v>74</v>
       </c>
@@ -9426,7 +9523,7 @@
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
     </row>
-    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>75</v>
       </c>
@@ -9471,7 +9568,7 @@
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
     </row>
-    <row r="151" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="13" t="s">
         <v>76</v>
       </c>
@@ -9516,7 +9613,7 @@
       <c r="R151" s="8"/>
       <c r="S151" s="8"/>
     </row>
-    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C152" s="2">
         <f>SUM(C147:C151)</f>
         <v>429</v>
@@ -9562,7 +9659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D156" s="41" t="s">
         <v>96</v>
       </c>
@@ -9582,7 +9679,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="15" t="s">
         <v>60</v>
       </c>
@@ -9626,7 +9723,7 @@
       <c r="R157" s="8"/>
       <c r="S157" s="8"/>
     </row>
-    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
         <v>77</v>
       </c>
@@ -9671,7 +9768,7 @@
       <c r="R158" s="8"/>
       <c r="S158" s="8"/>
     </row>
-    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
         <v>58</v>
       </c>
@@ -9716,7 +9813,7 @@
       <c r="R159" s="8"/>
       <c r="S159" s="8"/>
     </row>
-    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B160" s="12" t="s">
         <v>56</v>
       </c>
@@ -9761,7 +9858,7 @@
       <c r="R160" s="8"/>
       <c r="S160" s="8"/>
     </row>
-    <row r="161" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>78</v>
       </c>
@@ -9806,7 +9903,7 @@
       <c r="R161" s="8"/>
       <c r="S161" s="8"/>
     </row>
-    <row r="162" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
         <v>59</v>
       </c>
@@ -9851,7 +9948,7 @@
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
     </row>
-    <row r="163" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="13" t="s">
         <v>79</v>
       </c>
@@ -9896,7 +9993,7 @@
       <c r="R163" s="8"/>
       <c r="S163" s="8"/>
     </row>
-    <row r="164" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C164" s="7">
         <f>SUM(C158:C163)</f>
         <v>131</v>
@@ -9942,7 +10039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D168" s="41" t="s">
         <v>81</v>
       </c>
@@ -9962,7 +10059,7 @@
       <c r="R168" s="23"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
         <v>60</v>
       </c>
@@ -10004,7 +10101,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
     </row>
-    <row r="170" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>72</v>
       </c>
@@ -10047,7 +10144,7 @@
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
     </row>
-    <row r="171" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>73</v>
       </c>
@@ -10090,7 +10187,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
     </row>
-    <row r="172" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>74</v>
       </c>
@@ -10133,7 +10230,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
     </row>
-    <row r="173" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>75</v>
       </c>
@@ -10176,7 +10273,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
     </row>
-    <row r="174" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="13" t="s">
         <v>76</v>
       </c>
@@ -10219,7 +10316,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
     </row>
-    <row r="175" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C175" s="2">
         <f>SUM(C170:C174)</f>
         <v>246</v>
@@ -10265,7 +10362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D179" s="41" t="s">
         <v>80</v>
       </c>
@@ -10285,7 +10382,7 @@
       <c r="R179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="15" t="s">
         <v>60</v>
       </c>
@@ -10327,7 +10424,7 @@
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
     </row>
-    <row r="181" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="9" t="s">
         <v>77</v>
       </c>
@@ -10370,7 +10467,7 @@
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
     </row>
-    <row r="182" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="12" t="s">
         <v>58</v>
       </c>
@@ -10413,7 +10510,7 @@
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
     </row>
-    <row r="183" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="12" t="s">
         <v>56</v>
       </c>
@@ -10456,7 +10553,7 @@
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
     </row>
-    <row r="184" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="12" t="s">
         <v>78</v>
       </c>
@@ -10499,7 +10596,7 @@
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
     </row>
-    <row r="185" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="12" t="s">
         <v>59</v>
       </c>
@@ -10542,7 +10639,7 @@
       <c r="Q185" s="8"/>
       <c r="R185" s="8"/>
     </row>
-    <row r="186" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="13" t="s">
         <v>79</v>
       </c>
@@ -10585,7 +10682,7 @@
       <c r="Q186" s="8"/>
       <c r="R186" s="8"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C187" s="7">
         <f>SUM(C181:C186)</f>
         <v>96</v>
@@ -10631,21 +10728,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D188" s="36" t="s">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D188" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-      <c r="L188" s="36"/>
-      <c r="M188" s="36"/>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E188" s="35"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+      <c r="L188" s="35"/>
+      <c r="M188" s="35"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D189" s="28" t="s">
         <v>62</v>
       </c>
@@ -10680,7 +10777,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>102</v>
       </c>
@@ -10730,7 +10827,7 @@
       </c>
       <c r="N190" s="28"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>103</v>
       </c>
@@ -10786,7 +10883,7 @@
         <v>1.0000040020763041</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>99</v>
       </c>
@@ -10799,7 +10896,7 @@
         <v>0.12873085907085388</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>73</v>
       </c>
@@ -10812,7 +10909,7 @@
         <v>0.18634830002595379</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>74</v>
       </c>
@@ -10825,7 +10922,7 @@
         <v>0.13210485336101738</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>75</v>
       </c>
@@ -10838,7 +10935,7 @@
         <v>0.12873085907085388</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>76</v>
       </c>
@@ -10851,7 +10948,7 @@
         <v>0.12717363093693226</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>77</v>
       </c>
@@ -10864,7 +10961,7 @@
         <v>0.10537243706202959</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>58</v>
       </c>
@@ -10877,7 +10974,7 @@
         <v>5.6838826888139113E-2</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>56</v>
       </c>
@@ -10890,7 +10987,7 @@
         <v>3.6335323124837789E-2</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>78</v>
       </c>
@@ -10903,7 +11000,7 @@
         <v>8.8242927588891764E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
         <v>59</v>
       </c>
@@ -10916,7 +11013,7 @@
         <v>3.1923176745393203E-2</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
         <v>57</v>
       </c>
@@ -10929,7 +11026,7 @@
         <v>5.7617440955099922E-2</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="29">
@@ -10939,18 +11036,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="D121:M121"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D50:M50"/>
     <mergeCell ref="D188:M188"/>
     <mergeCell ref="AJ16:AK16"/>
     <mergeCell ref="P16:Q16"/>
@@ -10967,6 +11052,18 @@
     <mergeCell ref="D85:M85"/>
     <mergeCell ref="D97:M97"/>
     <mergeCell ref="D108:M108"/>
+    <mergeCell ref="D121:M121"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10981,19 +11078,19 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
@@ -11034,7 +11131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2026</v>
       </c>
@@ -11087,7 +11184,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>45</v>
@@ -11105,7 +11202,7 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="2" t="s">
         <v>46</v>
@@ -11123,7 +11220,7 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
       <c r="B6" s="2" t="s">
         <v>47</v>
@@ -11141,7 +11238,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>2027</v>
       </c>
@@ -11161,7 +11258,7 @@
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
@@ -11179,7 +11276,7 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>46</v>
@@ -11197,7 +11294,7 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>47</v>
@@ -11215,7 +11312,7 @@
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>2028</v>
       </c>
@@ -11235,7 +11332,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -11253,7 +11350,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -11271,7 +11368,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -11289,7 +11386,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>2029</v>
       </c>
@@ -11309,7 +11406,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="2" t="s">
         <v>45</v>
@@ -11327,7 +11424,7 @@
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -11345,7 +11442,7 @@
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -11363,7 +11460,7 @@
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>2030</v>
       </c>
@@ -11383,7 +11480,7 @@
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
@@ -11401,7 +11498,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -11419,7 +11516,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -11437,7 +11534,7 @@
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>2031</v>
       </c>
@@ -11457,7 +11554,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
@@ -11475,7 +11572,7 @@
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
@@ -11493,7 +11590,7 @@
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
@@ -11511,7 +11608,7 @@
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>2032</v>
       </c>
@@ -11531,7 +11628,7 @@
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
@@ -11549,7 +11646,7 @@
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -11567,7 +11664,7 @@
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="2" t="s">
         <v>47</v>
@@ -11585,7 +11682,7 @@
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>2033</v>
       </c>
@@ -11605,7 +11702,7 @@
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="2" t="s">
         <v>45</v>
@@ -11623,7 +11720,7 @@
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -11641,7 +11738,7 @@
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -11659,7 +11756,7 @@
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>2034</v>
       </c>
@@ -11679,7 +11776,7 @@
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -11697,7 +11794,7 @@
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="2" t="s">
         <v>46</v>
@@ -11715,7 +11812,7 @@
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="2" t="s">
         <v>47</v>
@@ -11733,7 +11830,7 @@
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>2035</v>
       </c>
@@ -11753,7 +11850,7 @@
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
@@ -11771,7 +11868,7 @@
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="2" t="s">
         <v>46</v>
@@ -11789,7 +11886,7 @@
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="2" t="s">
         <v>47</v>
@@ -11807,7 +11904,7 @@
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>2036</v>
       </c>
@@ -11827,7 +11924,7 @@
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="2" t="s">
         <v>45</v>
@@ -11845,7 +11942,7 @@
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="2" t="s">
         <v>46</v>
@@ -11863,7 +11960,7 @@
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
@@ -11883,17 +11980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
